--- a/database/industries/darou/defara/product/monthly_seprated.xlsx
+++ b/database/industries/darou/defara/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\defara\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4410F9-345E-40F5-9B80-A0E671E1E949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3CD51F-9E5D-4304-B5C2-75CA671074A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4044" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>

--- a/database/industries/darou/defara/product/monthly_seprated.xlsx
+++ b/database/industries/darou/defara/product/monthly_seprated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\defara\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3CD51F-9E5D-4304-B5C2-75CA671074A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C4CF64-72D9-4500-87F5-B53F034FCF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3465" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3428" uniqueCount="102">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دفارا-داروسازی‌ فارابی‌</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -187,6 +184,9 @@
     <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
+    <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مقدار تولید داخلی</t>
   </si>
   <si>
@@ -326,9 +326,6 @@
   </si>
   <si>
     <t>گرم / ریال</t>
-  </si>
-  <si>
-    <t>عدد / ریال</t>
   </si>
 </sst>
 </file>
@@ -1543,8 +1540,8 @@
       <c r="Y11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z11" s="11" t="s">
-        <v>58</v>
+      <c r="Z11" s="11">
+        <v>0</v>
       </c>
       <c r="AA11" s="11">
         <v>0</v>
@@ -1567,8 +1564,8 @@
       <c r="AG11" s="11">
         <v>0</v>
       </c>
-      <c r="AH11" s="11">
-        <v>0</v>
+      <c r="AH11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI11" s="11" t="s">
         <v>58</v>
@@ -1597,14 +1594,14 @@
       <c r="AQ11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR11" s="11" t="s">
-        <v>58</v>
+      <c r="AR11" s="11">
+        <v>0</v>
       </c>
       <c r="AS11" s="11">
         <v>0</v>
       </c>
-      <c r="AT11" s="11">
-        <v>0</v>
+      <c r="AT11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU11" s="11" t="s">
         <v>58</v>
@@ -1699,95 +1696,95 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>69769</v>
       </c>
       <c r="Z12" s="13">
-        <v>69769</v>
+        <v>54390</v>
       </c>
       <c r="AA12" s="13">
-        <v>54390</v>
+        <v>59202</v>
       </c>
       <c r="AB12" s="13">
-        <v>59202</v>
+        <v>34421</v>
       </c>
       <c r="AC12" s="13">
-        <v>34421</v>
+        <v>42934</v>
       </c>
       <c r="AD12" s="13">
-        <v>42934</v>
+        <v>38795</v>
       </c>
       <c r="AE12" s="13">
-        <v>38795</v>
+        <v>21659</v>
       </c>
       <c r="AF12" s="13">
-        <v>21659</v>
+        <v>8006</v>
       </c>
       <c r="AG12" s="13">
-        <v>8006</v>
+        <v>4596</v>
       </c>
       <c r="AH12" s="13">
-        <v>4596</v>
+        <v>5716</v>
       </c>
       <c r="AI12" s="13">
-        <v>5716</v>
+        <v>13483</v>
       </c>
       <c r="AJ12" s="13">
-        <v>13483</v>
+        <v>22569</v>
       </c>
       <c r="AK12" s="13">
-        <v>22569</v>
+        <v>16466</v>
       </c>
       <c r="AL12" s="13">
-        <v>16466</v>
+        <v>28723</v>
       </c>
       <c r="AM12" s="13">
-        <v>28723</v>
+        <v>32726</v>
       </c>
       <c r="AN12" s="13">
-        <v>32726</v>
+        <v>40314</v>
       </c>
       <c r="AO12" s="13">
-        <v>40314</v>
+        <v>34181</v>
       </c>
       <c r="AP12" s="13">
-        <v>34181</v>
+        <v>42715</v>
       </c>
       <c r="AQ12" s="13">
-        <v>42715</v>
+        <v>43997</v>
       </c>
       <c r="AR12" s="13">
-        <v>43997</v>
+        <v>27554</v>
       </c>
       <c r="AS12" s="13">
         <v>27554</v>
       </c>
       <c r="AT12" s="13">
-        <v>27554</v>
+        <v>30941</v>
       </c>
       <c r="AU12" s="13">
-        <v>30941</v>
+        <v>24774</v>
       </c>
       <c r="AV12" s="13">
-        <v>24774</v>
+        <v>21190</v>
       </c>
       <c r="AW12" s="13">
-        <v>21190</v>
+        <v>23734</v>
       </c>
       <c r="AX12" s="13">
-        <v>23734</v>
+        <v>22931</v>
       </c>
       <c r="AY12" s="13">
-        <v>22931</v>
+        <v>19964</v>
       </c>
       <c r="AZ12" s="13">
-        <v>19964</v>
+        <v>15005</v>
       </c>
       <c r="BA12" s="13">
-        <v>15005</v>
+        <v>24567</v>
       </c>
       <c r="BB12" s="13">
-        <v>24567</v>
+        <v>37580</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1858,71 +1855,71 @@
       <c r="X13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>58</v>
+      <c r="Y13" s="11">
+        <v>84597</v>
       </c>
       <c r="Z13" s="11">
-        <v>84597</v>
+        <v>79255</v>
       </c>
       <c r="AA13" s="11">
-        <v>79255</v>
+        <v>60829</v>
       </c>
       <c r="AB13" s="11">
-        <v>60829</v>
+        <v>54612</v>
       </c>
       <c r="AC13" s="11">
-        <v>54612</v>
+        <v>70923</v>
       </c>
       <c r="AD13" s="11">
-        <v>70923</v>
+        <v>84016</v>
       </c>
       <c r="AE13" s="11">
-        <v>84016</v>
+        <v>57658</v>
       </c>
       <c r="AF13" s="11">
-        <v>57658</v>
+        <v>61619</v>
       </c>
       <c r="AG13" s="11">
-        <v>61619</v>
+        <v>30315</v>
       </c>
       <c r="AH13" s="11">
-        <v>30315</v>
+        <v>32340</v>
       </c>
       <c r="AI13" s="11">
-        <v>32340</v>
+        <v>79791</v>
       </c>
       <c r="AJ13" s="11">
-        <v>79791</v>
+        <v>91438</v>
       </c>
       <c r="AK13" s="11">
-        <v>91438</v>
+        <v>88456</v>
       </c>
       <c r="AL13" s="11">
-        <v>88456</v>
+        <v>64738</v>
       </c>
       <c r="AM13" s="11">
-        <v>64738</v>
+        <v>92253</v>
       </c>
       <c r="AN13" s="11">
-        <v>92253</v>
+        <v>87312</v>
       </c>
       <c r="AO13" s="11">
-        <v>87312</v>
+        <v>84616</v>
       </c>
       <c r="AP13" s="11">
-        <v>84616</v>
+        <v>82283</v>
       </c>
       <c r="AQ13" s="11">
-        <v>82283</v>
+        <v>84526</v>
       </c>
       <c r="AR13" s="11">
-        <v>84526</v>
+        <v>35173</v>
       </c>
       <c r="AS13" s="11">
         <v>35173</v>
       </c>
-      <c r="AT13" s="11">
-        <v>35173</v>
+      <c r="AT13" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU13" s="11" t="s">
         <v>58</v>
@@ -2017,95 +2014,95 @@
       <c r="X14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="13" t="s">
-        <v>58</v>
+      <c r="Y14" s="13">
+        <v>2770</v>
       </c>
       <c r="Z14" s="13">
-        <v>2770</v>
+        <v>2187</v>
       </c>
       <c r="AA14" s="13">
-        <v>2187</v>
+        <v>2206</v>
       </c>
       <c r="AB14" s="13">
-        <v>2206</v>
+        <v>1717</v>
       </c>
       <c r="AC14" s="13">
-        <v>1717</v>
+        <v>877</v>
       </c>
       <c r="AD14" s="13">
-        <v>877</v>
+        <v>529</v>
       </c>
       <c r="AE14" s="13">
-        <v>529</v>
+        <v>39</v>
       </c>
       <c r="AF14" s="13">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="13">
         <v>0</v>
       </c>
       <c r="AH14" s="13">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AI14" s="13">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="AJ14" s="13">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="AK14" s="13">
         <v>40</v>
       </c>
       <c r="AL14" s="13">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AM14" s="13">
-        <v>95</v>
+        <v>291</v>
       </c>
       <c r="AN14" s="13">
-        <v>291</v>
+        <v>87</v>
       </c>
       <c r="AO14" s="13">
-        <v>87</v>
+        <v>803</v>
       </c>
       <c r="AP14" s="13">
-        <v>803</v>
+        <v>836</v>
       </c>
       <c r="AQ14" s="13">
-        <v>836</v>
+        <v>1126</v>
       </c>
       <c r="AR14" s="13">
-        <v>1126</v>
+        <v>1493</v>
       </c>
       <c r="AS14" s="13">
         <v>1493</v>
       </c>
       <c r="AT14" s="13">
-        <v>1493</v>
+        <v>1402</v>
       </c>
       <c r="AU14" s="13">
-        <v>1402</v>
+        <v>1519</v>
       </c>
       <c r="AV14" s="13">
-        <v>1519</v>
+        <v>1497</v>
       </c>
       <c r="AW14" s="13">
-        <v>1497</v>
+        <v>1447</v>
       </c>
       <c r="AX14" s="13">
-        <v>1447</v>
+        <v>876</v>
       </c>
       <c r="AY14" s="13">
-        <v>876</v>
+        <v>1339</v>
       </c>
       <c r="AZ14" s="13">
-        <v>1339</v>
+        <v>1421</v>
       </c>
       <c r="BA14" s="13">
-        <v>1421</v>
+        <v>3253</v>
       </c>
       <c r="BB14" s="13">
-        <v>3253</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2176,11 +2173,11 @@
       <c r="X15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z15" s="11">
-        <v>0</v>
+      <c r="Y15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AA15" s="11" t="s">
         <v>58</v>
@@ -2344,8 +2341,8 @@
       <c r="AA16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB16" s="13" t="s">
-        <v>58</v>
+      <c r="AB16" s="13">
+        <v>0</v>
       </c>
       <c r="AC16" s="13">
         <v>0</v>
@@ -2362,8 +2359,8 @@
       <c r="AG16" s="13">
         <v>0</v>
       </c>
-      <c r="AH16" s="13">
-        <v>0</v>
+      <c r="AH16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI16" s="13" t="s">
         <v>58</v>
@@ -2392,14 +2389,14 @@
       <c r="AQ16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR16" s="13" t="s">
-        <v>58</v>
+      <c r="AR16" s="13">
+        <v>0</v>
       </c>
       <c r="AS16" s="13">
         <v>0</v>
       </c>
-      <c r="AT16" s="13">
-        <v>0</v>
+      <c r="AT16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU16" s="13" t="s">
         <v>58</v>
@@ -2503,8 +2500,8 @@
       <c r="AA17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB17" s="11" t="s">
-        <v>58</v>
+      <c r="AB17" s="11">
+        <v>0</v>
       </c>
       <c r="AC17" s="11">
         <v>0</v>
@@ -2521,8 +2518,8 @@
       <c r="AG17" s="11">
         <v>0</v>
       </c>
-      <c r="AH17" s="11">
-        <v>0</v>
+      <c r="AH17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI17" s="11" t="s">
         <v>58</v>
@@ -2551,14 +2548,14 @@
       <c r="AQ17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR17" s="11" t="s">
-        <v>58</v>
+      <c r="AR17" s="11">
+        <v>0</v>
       </c>
       <c r="AS17" s="11">
         <v>0</v>
       </c>
-      <c r="AT17" s="11">
-        <v>0</v>
+      <c r="AT17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU17" s="11" t="s">
         <v>58</v>
@@ -2662,8 +2659,8 @@
       <c r="AA18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB18" s="13" t="s">
-        <v>58</v>
+      <c r="AB18" s="13">
+        <v>0</v>
       </c>
       <c r="AC18" s="13">
         <v>0</v>
@@ -2680,8 +2677,8 @@
       <c r="AG18" s="13">
         <v>0</v>
       </c>
-      <c r="AH18" s="13">
-        <v>0</v>
+      <c r="AH18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI18" s="13" t="s">
         <v>58</v>
@@ -2710,14 +2707,14 @@
       <c r="AQ18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR18" s="13" t="s">
-        <v>58</v>
+      <c r="AR18" s="13">
+        <v>0</v>
       </c>
       <c r="AS18" s="13">
         <v>0</v>
       </c>
-      <c r="AT18" s="13">
-        <v>0</v>
+      <c r="AT18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU18" s="13" t="s">
         <v>58</v>
@@ -2875,32 +2872,32 @@
       <c r="AS19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT19" s="11" t="s">
-        <v>58</v>
+      <c r="AT19" s="11">
+        <v>43080</v>
       </c>
       <c r="AU19" s="11">
-        <v>43080</v>
+        <v>43635</v>
       </c>
       <c r="AV19" s="11">
-        <v>43635</v>
+        <v>46160</v>
       </c>
       <c r="AW19" s="11">
-        <v>46160</v>
+        <v>45272</v>
       </c>
       <c r="AX19" s="11">
-        <v>45272</v>
+        <v>18813</v>
       </c>
       <c r="AY19" s="11">
-        <v>18813</v>
+        <v>11878</v>
       </c>
       <c r="AZ19" s="11">
-        <v>11878</v>
+        <v>40715</v>
       </c>
       <c r="BA19" s="11">
-        <v>40715</v>
+        <v>75894</v>
       </c>
       <c r="BB19" s="11">
-        <v>75894</v>
+        <v>62406</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -2970,94 +2967,94 @@
         <v>0</v>
       </c>
       <c r="Y20" s="15">
-        <v>0</v>
+        <v>157136</v>
       </c>
       <c r="Z20" s="15">
-        <v>157136</v>
+        <v>135832</v>
       </c>
       <c r="AA20" s="15">
-        <v>135832</v>
+        <v>122237</v>
       </c>
       <c r="AB20" s="15">
-        <v>122237</v>
+        <v>90750</v>
       </c>
       <c r="AC20" s="15">
-        <v>90750</v>
+        <v>114734</v>
       </c>
       <c r="AD20" s="15">
-        <v>114734</v>
+        <v>123340</v>
       </c>
       <c r="AE20" s="15">
-        <v>123340</v>
+        <v>79356</v>
       </c>
       <c r="AF20" s="15">
-        <v>79356</v>
+        <v>69625</v>
       </c>
       <c r="AG20" s="15">
-        <v>69625</v>
+        <v>34911</v>
       </c>
       <c r="AH20" s="15">
-        <v>34911</v>
+        <v>38103</v>
       </c>
       <c r="AI20" s="15">
-        <v>38103</v>
+        <v>93441</v>
       </c>
       <c r="AJ20" s="15">
-        <v>93441</v>
+        <v>114047</v>
       </c>
       <c r="AK20" s="15">
-        <v>114047</v>
+        <v>104962</v>
       </c>
       <c r="AL20" s="15">
-        <v>104962</v>
+        <v>93556</v>
       </c>
       <c r="AM20" s="15">
-        <v>93556</v>
+        <v>125270</v>
       </c>
       <c r="AN20" s="15">
-        <v>125270</v>
+        <v>127713</v>
       </c>
       <c r="AO20" s="15">
-        <v>127713</v>
+        <v>119600</v>
       </c>
       <c r="AP20" s="15">
-        <v>119600</v>
+        <v>125834</v>
       </c>
       <c r="AQ20" s="15">
-        <v>125834</v>
+        <v>129649</v>
       </c>
       <c r="AR20" s="15">
-        <v>129649</v>
+        <v>64220</v>
       </c>
       <c r="AS20" s="15">
         <v>64220</v>
       </c>
       <c r="AT20" s="15">
-        <v>64220</v>
+        <v>75423</v>
       </c>
       <c r="AU20" s="15">
-        <v>75423</v>
+        <v>69928</v>
       </c>
       <c r="AV20" s="15">
-        <v>69928</v>
+        <v>68847</v>
       </c>
       <c r="AW20" s="15">
-        <v>68847</v>
+        <v>70453</v>
       </c>
       <c r="AX20" s="15">
-        <v>70453</v>
+        <v>42620</v>
       </c>
       <c r="AY20" s="15">
-        <v>42620</v>
+        <v>33181</v>
       </c>
       <c r="AZ20" s="15">
-        <v>33181</v>
+        <v>57141</v>
       </c>
       <c r="BA20" s="15">
-        <v>57141</v>
+        <v>103714</v>
       </c>
       <c r="BB20" s="15">
-        <v>103714</v>
+        <v>103264</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3203,8 +3200,8 @@
       <c r="AD22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE22" s="11" t="s">
-        <v>58</v>
+      <c r="AE22" s="11">
+        <v>0</v>
       </c>
       <c r="AF22" s="11">
         <v>0</v>
@@ -3212,8 +3209,8 @@
       <c r="AG22" s="11">
         <v>0</v>
       </c>
-      <c r="AH22" s="11">
-        <v>0</v>
+      <c r="AH22" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI22" s="11" t="s">
         <v>58</v>
@@ -3344,8 +3341,8 @@
       <c r="X23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y23" s="13" t="s">
-        <v>58</v>
+      <c r="Y23" s="13">
+        <v>0</v>
       </c>
       <c r="Z23" s="13">
         <v>0</v>
@@ -3371,8 +3368,8 @@
       <c r="AG23" s="13">
         <v>0</v>
       </c>
-      <c r="AH23" s="13">
-        <v>0</v>
+      <c r="AH23" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI23" s="13" t="s">
         <v>58</v>
@@ -3503,8 +3500,8 @@
       <c r="X24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y24" s="11" t="s">
-        <v>58</v>
+      <c r="Y24" s="11">
+        <v>0</v>
       </c>
       <c r="Z24" s="11">
         <v>0</v>
@@ -3530,8 +3527,8 @@
       <c r="AG24" s="11">
         <v>0</v>
       </c>
-      <c r="AH24" s="11">
-        <v>0</v>
+      <c r="AH24" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI24" s="11" t="s">
         <v>58</v>
@@ -3557,8 +3554,8 @@
       <c r="AP24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ24" s="11" t="s">
-        <v>58</v>
+      <c r="AQ24" s="11">
+        <v>0</v>
       </c>
       <c r="AR24" s="11">
         <v>0</v>
@@ -3566,8 +3563,8 @@
       <c r="AS24" s="11">
         <v>0</v>
       </c>
-      <c r="AT24" s="11">
-        <v>0</v>
+      <c r="AT24" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU24" s="11" t="s">
         <v>58</v>
@@ -3662,8 +3659,8 @@
       <c r="X25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y25" s="13" t="s">
-        <v>58</v>
+      <c r="Y25" s="13">
+        <v>0</v>
       </c>
       <c r="Z25" s="13">
         <v>0</v>
@@ -3689,8 +3686,8 @@
       <c r="AG25" s="13">
         <v>0</v>
       </c>
-      <c r="AH25" s="13">
-        <v>0</v>
+      <c r="AH25" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI25" s="13" t="s">
         <v>58</v>
@@ -3716,8 +3713,8 @@
       <c r="AP25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ25" s="13" t="s">
-        <v>58</v>
+      <c r="AQ25" s="13">
+        <v>0</v>
       </c>
       <c r="AR25" s="13">
         <v>0</v>
@@ -3884,8 +3881,8 @@
       <c r="AS26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT26" s="11" t="s">
-        <v>58</v>
+      <c r="AT26" s="11">
+        <v>0</v>
       </c>
       <c r="AU26" s="11">
         <v>0</v>
@@ -4260,8 +4257,8 @@
       <c r="AT29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU29" s="11" t="s">
-        <v>58</v>
+      <c r="AU29" s="11">
+        <v>0</v>
       </c>
       <c r="AV29" s="11">
         <v>0</v>
@@ -4269,8 +4266,8 @@
       <c r="AW29" s="11">
         <v>0</v>
       </c>
-      <c r="AX29" s="11">
-        <v>0</v>
+      <c r="AX29" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY29" s="11" t="s">
         <v>58</v>
@@ -4278,8 +4275,8 @@
       <c r="AZ29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA29" s="11" t="s">
-        <v>58</v>
+      <c r="BA29" s="11">
+        <v>0</v>
       </c>
       <c r="BB29" s="11" t="s">
         <v>58</v>
@@ -4449,7 +4446,7 @@
         <v>74</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
@@ -4530,8 +4527,8 @@
       <c r="AD31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE31" s="11" t="s">
-        <v>58</v>
+      <c r="AE31" s="11">
+        <v>0</v>
       </c>
       <c r="AF31" s="11">
         <v>0</v>
@@ -4539,8 +4536,8 @@
       <c r="AG31" s="11">
         <v>0</v>
       </c>
-      <c r="AH31" s="11">
-        <v>0</v>
+      <c r="AH31" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI31" s="11" t="s">
         <v>58</v>
@@ -4578,8 +4575,8 @@
       <c r="AT31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU31" s="11" t="s">
-        <v>58</v>
+      <c r="AU31" s="11">
+        <v>0</v>
       </c>
       <c r="AV31" s="11">
         <v>0</v>
@@ -4587,8 +4584,8 @@
       <c r="AW31" s="11">
         <v>0</v>
       </c>
-      <c r="AX31" s="11">
-        <v>0</v>
+      <c r="AX31" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY31" s="11" t="s">
         <v>58</v>
@@ -4596,8 +4593,8 @@
       <c r="AZ31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA31" s="11" t="s">
-        <v>58</v>
+      <c r="BA31" s="11">
+        <v>0</v>
       </c>
       <c r="BB31" s="11" t="s">
         <v>58</v>
@@ -4671,8 +4668,8 @@
       <c r="X32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y32" s="13" t="s">
-        <v>58</v>
+      <c r="Y32" s="13">
+        <v>0</v>
       </c>
       <c r="Z32" s="13">
         <v>0</v>
@@ -4698,8 +4695,8 @@
       <c r="AG32" s="13">
         <v>0</v>
       </c>
-      <c r="AH32" s="13">
-        <v>0</v>
+      <c r="AH32" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI32" s="13" t="s">
         <v>58</v>
@@ -4836,8 +4833,8 @@
       <c r="Z33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA33" s="11" t="s">
-        <v>58</v>
+      <c r="AA33" s="11">
+        <v>0</v>
       </c>
       <c r="AB33" s="11">
         <v>0</v>
@@ -4857,8 +4854,8 @@
       <c r="AG33" s="11">
         <v>0</v>
       </c>
-      <c r="AH33" s="11">
-        <v>0</v>
+      <c r="AH33" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI33" s="11" t="s">
         <v>58</v>
@@ -4998,8 +4995,8 @@
       <c r="AA34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB34" s="13" t="s">
-        <v>58</v>
+      <c r="AB34" s="13">
+        <v>0</v>
       </c>
       <c r="AC34" s="13">
         <v>0</v>
@@ -5016,8 +5013,8 @@
       <c r="AG34" s="13">
         <v>0</v>
       </c>
-      <c r="AH34" s="13">
-        <v>0</v>
+      <c r="AH34" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI34" s="13" t="s">
         <v>58</v>
@@ -5146,8 +5143,8 @@
       <c r="X35" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y35" s="17" t="s">
-        <v>58</v>
+      <c r="Y35" s="17">
+        <v>0</v>
       </c>
       <c r="Z35" s="17">
         <v>0</v>
@@ -5304,94 +5301,94 @@
         <v>0</v>
       </c>
       <c r="Y36" s="15">
-        <v>0</v>
+        <v>157136</v>
       </c>
       <c r="Z36" s="15">
-        <v>157136</v>
+        <v>135832</v>
       </c>
       <c r="AA36" s="15">
-        <v>135832</v>
+        <v>122237</v>
       </c>
       <c r="AB36" s="15">
-        <v>122237</v>
+        <v>90750</v>
       </c>
       <c r="AC36" s="15">
-        <v>90750</v>
+        <v>114734</v>
       </c>
       <c r="AD36" s="15">
-        <v>114734</v>
+        <v>123340</v>
       </c>
       <c r="AE36" s="15">
-        <v>123340</v>
+        <v>79356</v>
       </c>
       <c r="AF36" s="15">
-        <v>79356</v>
+        <v>69625</v>
       </c>
       <c r="AG36" s="15">
-        <v>69625</v>
+        <v>34911</v>
       </c>
       <c r="AH36" s="15">
-        <v>34911</v>
+        <v>38103</v>
       </c>
       <c r="AI36" s="15">
-        <v>38103</v>
+        <v>93441</v>
       </c>
       <c r="AJ36" s="15">
-        <v>93441</v>
+        <v>114047</v>
       </c>
       <c r="AK36" s="15">
-        <v>114047</v>
+        <v>104962</v>
       </c>
       <c r="AL36" s="15">
-        <v>104962</v>
+        <v>93556</v>
       </c>
       <c r="AM36" s="15">
-        <v>93556</v>
+        <v>125270</v>
       </c>
       <c r="AN36" s="15">
-        <v>125270</v>
+        <v>127713</v>
       </c>
       <c r="AO36" s="15">
-        <v>127713</v>
+        <v>119600</v>
       </c>
       <c r="AP36" s="15">
-        <v>119600</v>
+        <v>125834</v>
       </c>
       <c r="AQ36" s="15">
-        <v>125834</v>
+        <v>129649</v>
       </c>
       <c r="AR36" s="15">
-        <v>129649</v>
+        <v>64220</v>
       </c>
       <c r="AS36" s="15">
         <v>64220</v>
       </c>
       <c r="AT36" s="15">
-        <v>64220</v>
+        <v>75423</v>
       </c>
       <c r="AU36" s="15">
-        <v>75423</v>
+        <v>69928</v>
       </c>
       <c r="AV36" s="15">
-        <v>69928</v>
+        <v>68847</v>
       </c>
       <c r="AW36" s="15">
-        <v>68847</v>
+        <v>70453</v>
       </c>
       <c r="AX36" s="15">
-        <v>70453</v>
+        <v>42620</v>
       </c>
       <c r="AY36" s="15">
-        <v>42620</v>
+        <v>33181</v>
       </c>
       <c r="AZ36" s="15">
-        <v>33181</v>
+        <v>57141</v>
       </c>
       <c r="BA36" s="15">
-        <v>57141</v>
+        <v>103714</v>
       </c>
       <c r="BB36" s="15">
-        <v>103714</v>
+        <v>103264</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -5899,8 +5896,8 @@
       <c r="Y43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z43" s="11" t="s">
-        <v>58</v>
+      <c r="Z43" s="11">
+        <v>0</v>
       </c>
       <c r="AA43" s="11">
         <v>0</v>
@@ -5923,8 +5920,8 @@
       <c r="AG43" s="11">
         <v>0</v>
       </c>
-      <c r="AH43" s="11">
-        <v>0</v>
+      <c r="AH43" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI43" s="11" t="s">
         <v>58</v>
@@ -5953,14 +5950,14 @@
       <c r="AQ43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR43" s="11" t="s">
-        <v>58</v>
+      <c r="AR43" s="11">
+        <v>0</v>
       </c>
       <c r="AS43" s="11">
         <v>0</v>
       </c>
-      <c r="AT43" s="11">
-        <v>0</v>
+      <c r="AT43" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU43" s="11" t="s">
         <v>58</v>
@@ -6055,95 +6052,95 @@
       <c r="X44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y44" s="13" t="s">
-        <v>58</v>
+      <c r="Y44" s="13">
+        <v>65245</v>
       </c>
       <c r="Z44" s="13">
-        <v>65245</v>
+        <v>57695</v>
       </c>
       <c r="AA44" s="13">
-        <v>57695</v>
+        <v>63126</v>
       </c>
       <c r="AB44" s="13">
-        <v>63126</v>
+        <v>32972</v>
       </c>
       <c r="AC44" s="13">
-        <v>32972</v>
+        <v>35690</v>
       </c>
       <c r="AD44" s="13">
-        <v>35690</v>
+        <v>31401</v>
       </c>
       <c r="AE44" s="13">
-        <v>31401</v>
+        <v>14855</v>
       </c>
       <c r="AF44" s="13">
-        <v>14855</v>
+        <v>3140</v>
       </c>
       <c r="AG44" s="13">
-        <v>3140</v>
+        <v>4400</v>
       </c>
       <c r="AH44" s="13">
-        <v>4400</v>
+        <v>22446</v>
       </c>
       <c r="AI44" s="13">
-        <v>22446</v>
+        <v>21716</v>
       </c>
       <c r="AJ44" s="13">
-        <v>21716</v>
+        <v>16413</v>
       </c>
       <c r="AK44" s="13">
-        <v>16413</v>
+        <v>20727</v>
       </c>
       <c r="AL44" s="13">
-        <v>20727</v>
+        <v>29546</v>
       </c>
       <c r="AM44" s="13">
-        <v>29546</v>
+        <v>35745</v>
       </c>
       <c r="AN44" s="13">
-        <v>35745</v>
+        <v>42369</v>
       </c>
       <c r="AO44" s="13">
-        <v>42369</v>
+        <v>34560</v>
       </c>
       <c r="AP44" s="13">
-        <v>34560</v>
+        <v>41305</v>
       </c>
       <c r="AQ44" s="13">
-        <v>41305</v>
+        <v>43580</v>
       </c>
       <c r="AR44" s="13">
-        <v>43580</v>
+        <v>15307</v>
       </c>
       <c r="AS44" s="13">
         <v>15307</v>
       </c>
       <c r="AT44" s="13">
-        <v>15307</v>
+        <v>30466</v>
       </c>
       <c r="AU44" s="13">
-        <v>30466</v>
+        <v>26539</v>
       </c>
       <c r="AV44" s="13">
-        <v>26539</v>
+        <v>29175</v>
       </c>
       <c r="AW44" s="13">
-        <v>29175</v>
+        <v>21771</v>
       </c>
       <c r="AX44" s="13">
-        <v>21771</v>
+        <v>17479</v>
       </c>
       <c r="AY44" s="13">
-        <v>17479</v>
+        <v>25124</v>
       </c>
       <c r="AZ44" s="13">
-        <v>25124</v>
+        <v>17776</v>
       </c>
       <c r="BA44" s="13">
-        <v>17776</v>
+        <v>25535</v>
       </c>
       <c r="BB44" s="13">
-        <v>25535</v>
+        <v>34254</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6214,71 +6211,71 @@
       <c r="X45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y45" s="11" t="s">
-        <v>58</v>
+      <c r="Y45" s="11">
+        <v>84282</v>
       </c>
       <c r="Z45" s="11">
-        <v>84282</v>
+        <v>79211</v>
       </c>
       <c r="AA45" s="11">
-        <v>79211</v>
+        <v>61836</v>
       </c>
       <c r="AB45" s="11">
-        <v>61836</v>
+        <v>52830</v>
       </c>
       <c r="AC45" s="11">
-        <v>52830</v>
+        <v>70845</v>
       </c>
       <c r="AD45" s="11">
-        <v>70845</v>
+        <v>77610</v>
       </c>
       <c r="AE45" s="11">
-        <v>77610</v>
+        <v>57968</v>
       </c>
       <c r="AF45" s="11">
-        <v>57968</v>
+        <v>46838</v>
       </c>
       <c r="AG45" s="11">
-        <v>46838</v>
+        <v>29588</v>
       </c>
       <c r="AH45" s="11">
-        <v>29588</v>
+        <v>54003</v>
       </c>
       <c r="AI45" s="11">
-        <v>54003</v>
+        <v>75922</v>
       </c>
       <c r="AJ45" s="11">
-        <v>75922</v>
+        <v>88550</v>
       </c>
       <c r="AK45" s="11">
-        <v>88550</v>
+        <v>93014</v>
       </c>
       <c r="AL45" s="11">
-        <v>93014</v>
+        <v>67867</v>
       </c>
       <c r="AM45" s="11">
-        <v>67867</v>
+        <v>91875</v>
       </c>
       <c r="AN45" s="11">
-        <v>91875</v>
+        <v>88099</v>
       </c>
       <c r="AO45" s="11">
-        <v>88099</v>
+        <v>84545</v>
       </c>
       <c r="AP45" s="11">
-        <v>84545</v>
+        <v>81801</v>
       </c>
       <c r="AQ45" s="11">
-        <v>81801</v>
+        <v>84280</v>
       </c>
       <c r="AR45" s="11">
-        <v>84280</v>
+        <v>3309</v>
       </c>
       <c r="AS45" s="11">
         <v>3309</v>
       </c>
-      <c r="AT45" s="11">
-        <v>3309</v>
+      <c r="AT45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU45" s="11" t="s">
         <v>58</v>
@@ -6373,95 +6370,95 @@
       <c r="X46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y46" s="13" t="s">
-        <v>58</v>
+      <c r="Y46" s="13">
+        <v>2764</v>
       </c>
       <c r="Z46" s="13">
-        <v>2764</v>
+        <v>1763</v>
       </c>
       <c r="AA46" s="13">
-        <v>1763</v>
+        <v>2437</v>
       </c>
       <c r="AB46" s="13">
-        <v>2437</v>
+        <v>1772</v>
       </c>
       <c r="AC46" s="13">
-        <v>1772</v>
+        <v>792</v>
       </c>
       <c r="AD46" s="13">
-        <v>792</v>
+        <v>327</v>
       </c>
       <c r="AE46" s="13">
-        <v>327</v>
+        <v>66</v>
       </c>
       <c r="AF46" s="13">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="AG46" s="13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH46" s="13">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="AI46" s="13">
-        <v>170</v>
+        <v>791</v>
       </c>
       <c r="AJ46" s="13">
-        <v>791</v>
+        <v>127</v>
       </c>
       <c r="AK46" s="13">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="AL46" s="13">
-        <v>83</v>
+        <v>233</v>
       </c>
       <c r="AM46" s="13">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="AN46" s="13">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="AO46" s="13">
-        <v>130</v>
+        <v>814</v>
       </c>
       <c r="AP46" s="13">
-        <v>814</v>
+        <v>851</v>
       </c>
       <c r="AQ46" s="13">
-        <v>851</v>
+        <v>1138</v>
       </c>
       <c r="AR46" s="13">
-        <v>1138</v>
+        <v>609</v>
       </c>
       <c r="AS46" s="13">
         <v>609</v>
       </c>
       <c r="AT46" s="13">
-        <v>609</v>
+        <v>1886</v>
       </c>
       <c r="AU46" s="13">
-        <v>1886</v>
+        <v>1072</v>
       </c>
       <c r="AV46" s="13">
-        <v>1072</v>
+        <v>1467</v>
       </c>
       <c r="AW46" s="13">
-        <v>1467</v>
+        <v>1769</v>
       </c>
       <c r="AX46" s="13">
-        <v>1769</v>
+        <v>1009</v>
       </c>
       <c r="AY46" s="13">
-        <v>1009</v>
+        <v>1534</v>
       </c>
       <c r="AZ46" s="13">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="BA46" s="13">
-        <v>1530</v>
+        <v>3320</v>
       </c>
       <c r="BB46" s="13">
-        <v>3320</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6532,11 +6529,11 @@
       <c r="X47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z47" s="11">
-        <v>0</v>
+      <c r="Y47" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AA47" s="11" t="s">
         <v>58</v>
@@ -6700,8 +6697,8 @@
       <c r="AA48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB48" s="13" t="s">
-        <v>58</v>
+      <c r="AB48" s="13">
+        <v>0</v>
       </c>
       <c r="AC48" s="13">
         <v>0</v>
@@ -6718,8 +6715,8 @@
       <c r="AG48" s="13">
         <v>0</v>
       </c>
-      <c r="AH48" s="13">
-        <v>0</v>
+      <c r="AH48" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI48" s="13" t="s">
         <v>58</v>
@@ -6748,14 +6745,14 @@
       <c r="AQ48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR48" s="13" t="s">
-        <v>58</v>
+      <c r="AR48" s="13">
+        <v>0</v>
       </c>
       <c r="AS48" s="13">
         <v>0</v>
       </c>
-      <c r="AT48" s="13">
-        <v>0</v>
+      <c r="AT48" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU48" s="13" t="s">
         <v>58</v>
@@ -6859,8 +6856,8 @@
       <c r="AA49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB49" s="11" t="s">
-        <v>58</v>
+      <c r="AB49" s="11">
+        <v>0</v>
       </c>
       <c r="AC49" s="11">
         <v>0</v>
@@ -6877,8 +6874,8 @@
       <c r="AG49" s="11">
         <v>0</v>
       </c>
-      <c r="AH49" s="11">
-        <v>0</v>
+      <c r="AH49" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI49" s="11" t="s">
         <v>58</v>
@@ -6907,14 +6904,14 @@
       <c r="AQ49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR49" s="11" t="s">
-        <v>58</v>
+      <c r="AR49" s="11">
+        <v>0</v>
       </c>
       <c r="AS49" s="11">
         <v>0</v>
       </c>
-      <c r="AT49" s="11">
-        <v>0</v>
+      <c r="AT49" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU49" s="11" t="s">
         <v>58</v>
@@ -7018,8 +7015,8 @@
       <c r="AA50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB50" s="13" t="s">
-        <v>58</v>
+      <c r="AB50" s="13">
+        <v>0</v>
       </c>
       <c r="AC50" s="13">
         <v>0</v>
@@ -7036,8 +7033,8 @@
       <c r="AG50" s="13">
         <v>0</v>
       </c>
-      <c r="AH50" s="13">
-        <v>0</v>
+      <c r="AH50" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI50" s="13" t="s">
         <v>58</v>
@@ -7066,14 +7063,14 @@
       <c r="AQ50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR50" s="13" t="s">
-        <v>58</v>
+      <c r="AR50" s="13">
+        <v>0</v>
       </c>
       <c r="AS50" s="13">
         <v>0</v>
       </c>
-      <c r="AT50" s="13">
-        <v>0</v>
+      <c r="AT50" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU50" s="13" t="s">
         <v>58</v>
@@ -7231,32 +7228,32 @@
       <c r="AS51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT51" s="11" t="s">
-        <v>58</v>
+      <c r="AT51" s="11">
+        <v>59293</v>
       </c>
       <c r="AU51" s="11">
-        <v>59293</v>
+        <v>48037</v>
       </c>
       <c r="AV51" s="11">
-        <v>48037</v>
+        <v>51135</v>
       </c>
       <c r="AW51" s="11">
-        <v>51135</v>
+        <v>39217</v>
       </c>
       <c r="AX51" s="11">
-        <v>39217</v>
+        <v>14024</v>
       </c>
       <c r="AY51" s="11">
-        <v>14024</v>
+        <v>16703</v>
       </c>
       <c r="AZ51" s="11">
-        <v>16703</v>
+        <v>48668</v>
       </c>
       <c r="BA51" s="11">
-        <v>48668</v>
+        <v>70299</v>
       </c>
       <c r="BB51" s="11">
-        <v>70299</v>
+        <v>62292</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -7326,94 +7323,94 @@
         <v>0</v>
       </c>
       <c r="Y52" s="15">
-        <v>0</v>
+        <v>152291</v>
       </c>
       <c r="Z52" s="15">
-        <v>152291</v>
+        <v>138669</v>
       </c>
       <c r="AA52" s="15">
-        <v>138669</v>
+        <v>127399</v>
       </c>
       <c r="AB52" s="15">
-        <v>127399</v>
+        <v>87574</v>
       </c>
       <c r="AC52" s="15">
-        <v>87574</v>
+        <v>107327</v>
       </c>
       <c r="AD52" s="15">
-        <v>107327</v>
+        <v>109338</v>
       </c>
       <c r="AE52" s="15">
-        <v>109338</v>
+        <v>72889</v>
       </c>
       <c r="AF52" s="15">
-        <v>72889</v>
+        <v>49985</v>
       </c>
       <c r="AG52" s="15">
-        <v>49985</v>
+        <v>33992</v>
       </c>
       <c r="AH52" s="15">
-        <v>33992</v>
+        <v>76619</v>
       </c>
       <c r="AI52" s="15">
-        <v>76619</v>
+        <v>98429</v>
       </c>
       <c r="AJ52" s="15">
-        <v>98429</v>
+        <v>105090</v>
       </c>
       <c r="AK52" s="15">
-        <v>105090</v>
+        <v>113824</v>
       </c>
       <c r="AL52" s="15">
-        <v>113824</v>
+        <v>97646</v>
       </c>
       <c r="AM52" s="15">
-        <v>97646</v>
+        <v>127795</v>
       </c>
       <c r="AN52" s="15">
-        <v>127795</v>
+        <v>130598</v>
       </c>
       <c r="AO52" s="15">
-        <v>130598</v>
+        <v>119919</v>
       </c>
       <c r="AP52" s="15">
-        <v>119919</v>
+        <v>123957</v>
       </c>
       <c r="AQ52" s="15">
-        <v>123957</v>
+        <v>128998</v>
       </c>
       <c r="AR52" s="15">
-        <v>128998</v>
+        <v>19225</v>
       </c>
       <c r="AS52" s="15">
         <v>19225</v>
       </c>
       <c r="AT52" s="15">
-        <v>19225</v>
+        <v>91645</v>
       </c>
       <c r="AU52" s="15">
-        <v>91645</v>
+        <v>75648</v>
       </c>
       <c r="AV52" s="15">
-        <v>75648</v>
+        <v>81777</v>
       </c>
       <c r="AW52" s="15">
-        <v>81777</v>
+        <v>62757</v>
       </c>
       <c r="AX52" s="15">
-        <v>62757</v>
+        <v>32512</v>
       </c>
       <c r="AY52" s="15">
-        <v>32512</v>
+        <v>43361</v>
       </c>
       <c r="AZ52" s="15">
-        <v>43361</v>
+        <v>67974</v>
       </c>
       <c r="BA52" s="15">
-        <v>67974</v>
+        <v>99154</v>
       </c>
       <c r="BB52" s="15">
-        <v>99154</v>
+        <v>99740</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -7559,8 +7556,8 @@
       <c r="AD54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE54" s="11" t="s">
-        <v>58</v>
+      <c r="AE54" s="11">
+        <v>0</v>
       </c>
       <c r="AF54" s="11">
         <v>0</v>
@@ -7568,8 +7565,8 @@
       <c r="AG54" s="11">
         <v>0</v>
       </c>
-      <c r="AH54" s="11">
-        <v>0</v>
+      <c r="AH54" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI54" s="11" t="s">
         <v>58</v>
@@ -7700,8 +7697,8 @@
       <c r="X55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y55" s="13" t="s">
-        <v>58</v>
+      <c r="Y55" s="13">
+        <v>0</v>
       </c>
       <c r="Z55" s="13">
         <v>0</v>
@@ -7727,8 +7724,8 @@
       <c r="AG55" s="13">
         <v>0</v>
       </c>
-      <c r="AH55" s="13">
-        <v>0</v>
+      <c r="AH55" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI55" s="13" t="s">
         <v>58</v>
@@ -7859,11 +7856,11 @@
       <c r="X56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y56" s="11" t="s">
-        <v>58</v>
+      <c r="Y56" s="11">
+        <v>525</v>
       </c>
       <c r="Z56" s="11">
-        <v>525</v>
+        <v>0</v>
       </c>
       <c r="AA56" s="11">
         <v>0</v>
@@ -7886,8 +7883,8 @@
       <c r="AG56" s="11">
         <v>0</v>
       </c>
-      <c r="AH56" s="11">
-        <v>0</v>
+      <c r="AH56" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI56" s="11" t="s">
         <v>58</v>
@@ -7913,8 +7910,8 @@
       <c r="AP56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ56" s="11" t="s">
-        <v>58</v>
+      <c r="AQ56" s="11">
+        <v>0</v>
       </c>
       <c r="AR56" s="11">
         <v>0</v>
@@ -7922,8 +7919,8 @@
       <c r="AS56" s="11">
         <v>0</v>
       </c>
-      <c r="AT56" s="11">
-        <v>0</v>
+      <c r="AT56" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU56" s="11" t="s">
         <v>58</v>
@@ -8018,11 +8015,11 @@
       <c r="X57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y57" s="13" t="s">
-        <v>58</v>
+      <c r="Y57" s="13">
+        <v>63</v>
       </c>
       <c r="Z57" s="13">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="13">
         <v>0</v>
@@ -8045,8 +8042,8 @@
       <c r="AG57" s="13">
         <v>0</v>
       </c>
-      <c r="AH57" s="13">
-        <v>0</v>
+      <c r="AH57" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI57" s="13" t="s">
         <v>58</v>
@@ -8060,20 +8057,20 @@
       <c r="AL57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM57" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN57" s="13">
+      <c r="AM57" s="13">
         <v>28</v>
       </c>
+      <c r="AN57" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AO57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP57" s="13" t="s">
-        <v>58</v>
+      <c r="AP57" s="13">
+        <v>37</v>
       </c>
       <c r="AQ57" s="13">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AR57" s="13">
         <v>0</v>
@@ -8240,8 +8237,8 @@
       <c r="AS58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT58" s="11" t="s">
-        <v>58</v>
+      <c r="AT58" s="11">
+        <v>0</v>
       </c>
       <c r="AU58" s="11">
         <v>0</v>
@@ -8335,10 +8332,10 @@
         <v>0</v>
       </c>
       <c r="Y59" s="15">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="Z59" s="15">
-        <v>588</v>
+        <v>0</v>
       </c>
       <c r="AA59" s="15">
         <v>0</v>
@@ -8377,19 +8374,19 @@
         <v>0</v>
       </c>
       <c r="AM59" s="15">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AN59" s="15">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AO59" s="15">
         <v>0</v>
       </c>
       <c r="AP59" s="15">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AQ59" s="15">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AR59" s="15">
         <v>0</v>
@@ -8616,17 +8613,17 @@
       <c r="AT61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU61" s="11" t="s">
-        <v>58</v>
+      <c r="AU61" s="11">
+        <v>100</v>
       </c>
       <c r="AV61" s="11">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AW61" s="11">
-        <v>-100</v>
-      </c>
-      <c r="AX61" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AX61" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY61" s="11" t="s">
         <v>58</v>
@@ -8634,8 +8631,8 @@
       <c r="AZ61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA61" s="11" t="s">
-        <v>58</v>
+      <c r="BA61" s="11">
+        <v>0</v>
       </c>
       <c r="BB61" s="11" t="s">
         <v>58</v>
@@ -8805,7 +8802,7 @@
         <v>74</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
@@ -8886,8 +8883,8 @@
       <c r="AD63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE63" s="11" t="s">
-        <v>58</v>
+      <c r="AE63" s="11">
+        <v>0</v>
       </c>
       <c r="AF63" s="11">
         <v>0</v>
@@ -8895,8 +8892,8 @@
       <c r="AG63" s="11">
         <v>0</v>
       </c>
-      <c r="AH63" s="11">
-        <v>0</v>
+      <c r="AH63" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI63" s="11" t="s">
         <v>58</v>
@@ -8934,17 +8931,17 @@
       <c r="AT63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU63" s="11" t="s">
-        <v>58</v>
+      <c r="AU63" s="11">
+        <v>6035</v>
       </c>
       <c r="AV63" s="11">
-        <v>6035</v>
+        <v>0</v>
       </c>
       <c r="AW63" s="11">
         <v>0</v>
       </c>
-      <c r="AX63" s="11">
-        <v>0</v>
+      <c r="AX63" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY63" s="11" t="s">
         <v>58</v>
@@ -8952,11 +8949,11 @@
       <c r="AZ63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB63" s="11" t="s">
-        <v>58</v>
+      <c r="BA63" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB63" s="11">
+        <v>5570</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -9027,26 +9024,26 @@
       <c r="X64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y64" s="13" t="s">
-        <v>58</v>
+      <c r="Y64" s="13">
+        <v>13924</v>
       </c>
       <c r="Z64" s="13">
-        <v>13924</v>
+        <v>8398</v>
       </c>
       <c r="AA64" s="13">
-        <v>8398</v>
+        <v>6972</v>
       </c>
       <c r="AB64" s="13">
         <v>6972</v>
       </c>
       <c r="AC64" s="13">
-        <v>6972</v>
+        <v>996</v>
       </c>
       <c r="AD64" s="13">
-        <v>996</v>
+        <v>2490</v>
       </c>
       <c r="AE64" s="13">
-        <v>2490</v>
+        <v>0</v>
       </c>
       <c r="AF64" s="13">
         <v>0</v>
@@ -9054,8 +9051,8 @@
       <c r="AG64" s="13">
         <v>0</v>
       </c>
-      <c r="AH64" s="13">
-        <v>0</v>
+      <c r="AH64" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI64" s="13" t="s">
         <v>58</v>
@@ -9192,11 +9189,11 @@
       <c r="Z65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA65" s="11" t="s">
-        <v>58</v>
+      <c r="AA65" s="11">
+        <v>167</v>
       </c>
       <c r="AB65" s="11">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="AC65" s="11">
         <v>0</v>
@@ -9213,8 +9210,8 @@
       <c r="AG65" s="11">
         <v>0</v>
       </c>
-      <c r="AH65" s="11">
-        <v>0</v>
+      <c r="AH65" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI65" s="11" t="s">
         <v>58</v>
@@ -9354,11 +9351,11 @@
       <c r="AA66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB66" s="13" t="s">
-        <v>58</v>
+      <c r="AB66" s="13">
+        <v>4900</v>
       </c>
       <c r="AC66" s="13">
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="AD66" s="13">
         <v>0</v>
@@ -9372,8 +9369,8 @@
       <c r="AG66" s="13">
         <v>0</v>
       </c>
-      <c r="AH66" s="13">
-        <v>0</v>
+      <c r="AH66" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI66" s="13" t="s">
         <v>58</v>
@@ -9502,26 +9499,26 @@
       <c r="X67" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y67" s="17" t="s">
-        <v>58</v>
+      <c r="Y67" s="17">
+        <v>13924</v>
       </c>
       <c r="Z67" s="17">
-        <v>13924</v>
+        <v>8398</v>
       </c>
       <c r="AA67" s="17">
-        <v>8398</v>
+        <v>7139</v>
       </c>
       <c r="AB67" s="17">
-        <v>7139</v>
+        <v>11872</v>
       </c>
       <c r="AC67" s="17">
-        <v>11872</v>
+        <v>996</v>
       </c>
       <c r="AD67" s="17">
-        <v>996</v>
+        <v>2490</v>
       </c>
       <c r="AE67" s="17">
-        <v>2490</v>
+        <v>0</v>
       </c>
       <c r="AF67" s="17">
         <v>0</v>
@@ -9569,13 +9566,13 @@
         <v>0</v>
       </c>
       <c r="AU67" s="17">
-        <v>0</v>
+        <v>6135</v>
       </c>
       <c r="AV67" s="17">
-        <v>6135</v>
+        <v>-100</v>
       </c>
       <c r="AW67" s="17">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AX67" s="17">
         <v>0</v>
@@ -9590,7 +9587,7 @@
         <v>0</v>
       </c>
       <c r="BB67" s="17">
-        <v>0</v>
+        <v>5570</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -9784,14 +9781,14 @@
       <c r="AT69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU69" s="11" t="s">
-        <v>58</v>
+      <c r="AU69" s="11">
+        <v>-13</v>
       </c>
       <c r="AV69" s="11">
-        <v>-13</v>
-      </c>
-      <c r="AW69" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AW69" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX69" s="11" t="s">
         <v>58</v>
@@ -9802,8 +9799,8 @@
       <c r="AZ69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA69" s="11" t="s">
-        <v>58</v>
+      <c r="BA69" s="11">
+        <v>0</v>
       </c>
       <c r="BB69" s="11" t="s">
         <v>58</v>
@@ -9898,14 +9895,14 @@
       <c r="AE70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF70" s="13" t="s">
-        <v>58</v>
+      <c r="AF70" s="13">
+        <v>282</v>
       </c>
       <c r="AG70" s="13">
-        <v>282</v>
-      </c>
-      <c r="AH70" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH70" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI70" s="13" t="s">
         <v>58</v>
@@ -9943,26 +9940,26 @@
       <c r="AT70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU70" s="13" t="s">
-        <v>58</v>
+      <c r="AU70" s="13">
+        <v>-231</v>
       </c>
       <c r="AV70" s="13">
-        <v>-231</v>
-      </c>
-      <c r="AW70" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AW70" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ70" s="13">
+      <c r="AY70" s="13">
         <v>-603</v>
       </c>
-      <c r="BA70" s="13" t="s">
-        <v>58</v>
+      <c r="AZ70" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA70" s="13">
+        <v>834</v>
       </c>
       <c r="BB70" s="13" t="s">
         <v>58</v>
@@ -10034,8 +10031,8 @@
       <c r="X71" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y71" s="17" t="s">
-        <v>58</v>
+      <c r="Y71" s="17">
+        <v>0</v>
       </c>
       <c r="Z71" s="17">
         <v>0</v>
@@ -10056,10 +10053,10 @@
         <v>0</v>
       </c>
       <c r="AF71" s="17">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="AG71" s="17">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="AH71" s="17">
         <v>0</v>
@@ -10101,10 +10098,10 @@
         <v>0</v>
       </c>
       <c r="AU71" s="17">
-        <v>0</v>
+        <v>-244</v>
       </c>
       <c r="AV71" s="17">
-        <v>-244</v>
+        <v>0</v>
       </c>
       <c r="AW71" s="17">
         <v>0</v>
@@ -10113,13 +10110,13 @@
         <v>0</v>
       </c>
       <c r="AY71" s="17">
-        <v>0</v>
+        <v>-603</v>
       </c>
       <c r="AZ71" s="17">
-        <v>-603</v>
+        <v>0</v>
       </c>
       <c r="BA71" s="17">
-        <v>0</v>
+        <v>834</v>
       </c>
       <c r="BB71" s="17">
         <v>0</v>
@@ -10192,94 +10189,94 @@
         <v>0</v>
       </c>
       <c r="Y72" s="15">
-        <v>0</v>
+        <v>166803</v>
       </c>
       <c r="Z72" s="15">
-        <v>166803</v>
+        <v>147067</v>
       </c>
       <c r="AA72" s="15">
-        <v>147067</v>
+        <v>134538</v>
       </c>
       <c r="AB72" s="15">
-        <v>134538</v>
+        <v>99446</v>
       </c>
       <c r="AC72" s="15">
-        <v>99446</v>
+        <v>108323</v>
       </c>
       <c r="AD72" s="15">
-        <v>108323</v>
+        <v>111828</v>
       </c>
       <c r="AE72" s="15">
-        <v>111828</v>
+        <v>72889</v>
       </c>
       <c r="AF72" s="15">
-        <v>72889</v>
+        <v>50267</v>
       </c>
       <c r="AG72" s="15">
-        <v>50267</v>
+        <v>33992</v>
       </c>
       <c r="AH72" s="15">
-        <v>33992</v>
+        <v>76619</v>
       </c>
       <c r="AI72" s="15">
-        <v>76619</v>
+        <v>98429</v>
       </c>
       <c r="AJ72" s="15">
-        <v>98429</v>
+        <v>105090</v>
       </c>
       <c r="AK72" s="15">
-        <v>105090</v>
+        <v>113824</v>
       </c>
       <c r="AL72" s="15">
-        <v>113824</v>
+        <v>97646</v>
       </c>
       <c r="AM72" s="15">
-        <v>97646</v>
+        <v>127823</v>
       </c>
       <c r="AN72" s="15">
-        <v>127823</v>
+        <v>130598</v>
       </c>
       <c r="AO72" s="15">
-        <v>130598</v>
+        <v>119919</v>
       </c>
       <c r="AP72" s="15">
-        <v>119919</v>
+        <v>123994</v>
       </c>
       <c r="AQ72" s="15">
-        <v>123994</v>
+        <v>128998</v>
       </c>
       <c r="AR72" s="15">
-        <v>128998</v>
+        <v>19225</v>
       </c>
       <c r="AS72" s="15">
         <v>19225</v>
       </c>
       <c r="AT72" s="15">
-        <v>19225</v>
+        <v>91645</v>
       </c>
       <c r="AU72" s="15">
-        <v>91645</v>
+        <v>81539</v>
       </c>
       <c r="AV72" s="15">
-        <v>81539</v>
+        <v>81677</v>
       </c>
       <c r="AW72" s="15">
-        <v>81677</v>
+        <v>62757</v>
       </c>
       <c r="AX72" s="15">
-        <v>62757</v>
+        <v>32512</v>
       </c>
       <c r="AY72" s="15">
-        <v>32512</v>
+        <v>42758</v>
       </c>
       <c r="AZ72" s="15">
-        <v>42758</v>
+        <v>67974</v>
       </c>
       <c r="BA72" s="15">
-        <v>67974</v>
+        <v>99988</v>
       </c>
       <c r="BB72" s="15">
-        <v>99154</v>
+        <v>105310</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.3">
@@ -10787,8 +10784,8 @@
       <c r="Y79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z79" s="11" t="s">
-        <v>58</v>
+      <c r="Z79" s="11">
+        <v>0</v>
       </c>
       <c r="AA79" s="11">
         <v>0</v>
@@ -10811,8 +10808,8 @@
       <c r="AG79" s="11">
         <v>0</v>
       </c>
-      <c r="AH79" s="11">
-        <v>0</v>
+      <c r="AH79" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI79" s="11" t="s">
         <v>58</v>
@@ -10829,8 +10826,8 @@
       <c r="AM79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN79" s="11" t="s">
-        <v>58</v>
+      <c r="AN79" s="11">
+        <v>0</v>
       </c>
       <c r="AO79" s="11">
         <v>0</v>
@@ -10847,8 +10844,8 @@
       <c r="AS79" s="11">
         <v>0</v>
       </c>
-      <c r="AT79" s="11">
-        <v>0</v>
+      <c r="AT79" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU79" s="11" t="s">
         <v>58</v>
@@ -10943,95 +10940,95 @@
       <c r="X80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y80" s="13" t="s">
-        <v>58</v>
+      <c r="Y80" s="13">
+        <v>247409</v>
       </c>
       <c r="Z80" s="13">
-        <v>247409</v>
+        <v>241187</v>
       </c>
       <c r="AA80" s="13">
-        <v>241187</v>
+        <v>233686</v>
       </c>
       <c r="AB80" s="13">
-        <v>233686</v>
+        <v>204873</v>
       </c>
       <c r="AC80" s="13">
-        <v>204873</v>
+        <v>166166</v>
       </c>
       <c r="AD80" s="13">
-        <v>166166</v>
+        <v>128837</v>
       </c>
       <c r="AE80" s="13">
-        <v>128837</v>
+        <v>93151</v>
       </c>
       <c r="AF80" s="13">
-        <v>93151</v>
+        <v>29610</v>
       </c>
       <c r="AG80" s="13">
-        <v>29610</v>
+        <v>33325</v>
       </c>
       <c r="AH80" s="13">
-        <v>33325</v>
+        <v>99201</v>
       </c>
       <c r="AI80" s="13">
-        <v>99201</v>
+        <v>114949</v>
       </c>
       <c r="AJ80" s="13">
-        <v>114949</v>
+        <v>69133</v>
       </c>
       <c r="AK80" s="13">
-        <v>69133</v>
+        <v>82726</v>
       </c>
       <c r="AL80" s="13">
-        <v>82726</v>
+        <v>132808</v>
       </c>
       <c r="AM80" s="13">
-        <v>132808</v>
+        <v>167798</v>
       </c>
       <c r="AN80" s="13">
-        <v>167798</v>
+        <v>144108</v>
       </c>
       <c r="AO80" s="13">
-        <v>144108</v>
+        <v>210592</v>
       </c>
       <c r="AP80" s="13">
-        <v>210592</v>
+        <v>214812</v>
       </c>
       <c r="AQ80" s="13">
-        <v>214812</v>
+        <v>262446</v>
       </c>
       <c r="AR80" s="13">
-        <v>262446</v>
+        <v>90889</v>
       </c>
       <c r="AS80" s="13">
         <v>90889</v>
       </c>
       <c r="AT80" s="13">
-        <v>90889</v>
+        <v>195095</v>
       </c>
       <c r="AU80" s="13">
-        <v>195095</v>
+        <v>203900</v>
       </c>
       <c r="AV80" s="13">
-        <v>203900</v>
+        <v>191703</v>
       </c>
       <c r="AW80" s="13">
-        <v>191703</v>
+        <v>221323</v>
       </c>
       <c r="AX80" s="13">
-        <v>221323</v>
+        <v>295475</v>
       </c>
       <c r="AY80" s="13">
-        <v>295475</v>
+        <v>375774</v>
       </c>
       <c r="AZ80" s="13">
-        <v>375774</v>
+        <v>363688</v>
       </c>
       <c r="BA80" s="13">
-        <v>363688</v>
+        <v>577635</v>
       </c>
       <c r="BB80" s="13">
-        <v>577635</v>
+        <v>903468</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.3">
@@ -11102,71 +11099,71 @@
       <c r="X81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y81" s="11" t="s">
-        <v>58</v>
+      <c r="Y81" s="11">
+        <v>290731</v>
       </c>
       <c r="Z81" s="11">
-        <v>290731</v>
+        <v>266650</v>
       </c>
       <c r="AA81" s="11">
-        <v>266650</v>
+        <v>238816</v>
       </c>
       <c r="AB81" s="11">
-        <v>238816</v>
+        <v>219287</v>
       </c>
       <c r="AC81" s="11">
-        <v>219287</v>
+        <v>308261</v>
       </c>
       <c r="AD81" s="11">
-        <v>308261</v>
+        <v>349315</v>
       </c>
       <c r="AE81" s="11">
-        <v>349315</v>
+        <v>243513</v>
       </c>
       <c r="AF81" s="11">
-        <v>243513</v>
+        <v>198819</v>
       </c>
       <c r="AG81" s="11">
-        <v>198819</v>
+        <v>106028</v>
       </c>
       <c r="AH81" s="11">
-        <v>106028</v>
+        <v>238883</v>
       </c>
       <c r="AI81" s="11">
-        <v>238883</v>
+        <v>327969</v>
       </c>
       <c r="AJ81" s="11">
-        <v>327969</v>
+        <v>324462</v>
       </c>
       <c r="AK81" s="11">
-        <v>324462</v>
+        <v>357025</v>
       </c>
       <c r="AL81" s="11">
-        <v>357025</v>
+        <v>371158</v>
       </c>
       <c r="AM81" s="11">
-        <v>371158</v>
+        <v>490785</v>
       </c>
       <c r="AN81" s="11">
-        <v>490785</v>
+        <v>430397</v>
       </c>
       <c r="AO81" s="11">
-        <v>430397</v>
+        <v>438276</v>
       </c>
       <c r="AP81" s="11">
-        <v>438276</v>
+        <v>448083</v>
       </c>
       <c r="AQ81" s="11">
-        <v>448083</v>
+        <v>459389</v>
       </c>
       <c r="AR81" s="11">
-        <v>459389</v>
+        <v>25115</v>
       </c>
       <c r="AS81" s="11">
         <v>25115</v>
       </c>
-      <c r="AT81" s="11">
-        <v>25115</v>
+      <c r="AT81" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU81" s="11" t="s">
         <v>58</v>
@@ -11261,95 +11258,95 @@
       <c r="X82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y82" s="13" t="s">
-        <v>58</v>
+      <c r="Y82" s="13">
+        <v>155657</v>
       </c>
       <c r="Z82" s="13">
-        <v>155657</v>
+        <v>98884</v>
       </c>
       <c r="AA82" s="13">
-        <v>98884</v>
+        <v>143716</v>
       </c>
       <c r="AB82" s="13">
-        <v>143716</v>
+        <v>104716</v>
       </c>
       <c r="AC82" s="13">
-        <v>104716</v>
+        <v>46199</v>
       </c>
       <c r="AD82" s="13">
-        <v>46199</v>
+        <v>22349</v>
       </c>
       <c r="AE82" s="13">
-        <v>22349</v>
+        <v>5423</v>
       </c>
       <c r="AF82" s="13">
-        <v>5423</v>
+        <v>392</v>
       </c>
       <c r="AG82" s="13">
-        <v>392</v>
+        <v>319</v>
       </c>
       <c r="AH82" s="13">
-        <v>319</v>
+        <v>12120</v>
       </c>
       <c r="AI82" s="13">
-        <v>12120</v>
+        <v>59944</v>
       </c>
       <c r="AJ82" s="13">
-        <v>59944</v>
+        <v>8392</v>
       </c>
       <c r="AK82" s="13">
-        <v>8392</v>
+        <v>5243</v>
       </c>
       <c r="AL82" s="13">
-        <v>5243</v>
+        <v>16123</v>
       </c>
       <c r="AM82" s="13">
-        <v>16123</v>
+        <v>14025</v>
       </c>
       <c r="AN82" s="13">
-        <v>14025</v>
+        <v>6363</v>
       </c>
       <c r="AO82" s="13">
-        <v>6363</v>
+        <v>60144</v>
       </c>
       <c r="AP82" s="13">
-        <v>60144</v>
+        <v>64573</v>
       </c>
       <c r="AQ82" s="13">
-        <v>64573</v>
+        <v>78831</v>
       </c>
       <c r="AR82" s="13">
-        <v>78831</v>
+        <v>47399</v>
       </c>
       <c r="AS82" s="13">
         <v>47399</v>
       </c>
       <c r="AT82" s="13">
-        <v>47399</v>
+        <v>167988</v>
       </c>
       <c r="AU82" s="13">
-        <v>167988</v>
+        <v>86959</v>
       </c>
       <c r="AV82" s="13">
-        <v>86959</v>
+        <v>137105</v>
       </c>
       <c r="AW82" s="13">
-        <v>137105</v>
+        <v>219347</v>
       </c>
       <c r="AX82" s="13">
-        <v>219347</v>
+        <v>193827</v>
       </c>
       <c r="AY82" s="13">
-        <v>193827</v>
+        <v>315663</v>
       </c>
       <c r="AZ82" s="13">
-        <v>315663</v>
+        <v>265317</v>
       </c>
       <c r="BA82" s="13">
-        <v>265317</v>
+        <v>766544</v>
       </c>
       <c r="BB82" s="13">
-        <v>766544</v>
+        <v>746811</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -11420,11 +11417,11 @@
       <c r="X83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y83" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z83" s="11">
-        <v>0</v>
+      <c r="Y83" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AA83" s="11" t="s">
         <v>58</v>
@@ -11588,27 +11585,27 @@
       <c r="AA84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB84" s="13" t="s">
-        <v>58</v>
+      <c r="AB84" s="13">
+        <v>29780</v>
       </c>
       <c r="AC84" s="13">
-        <v>29780</v>
+        <v>0</v>
       </c>
       <c r="AD84" s="13">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE84" s="13">
-        <v>29</v>
+        <v>11222</v>
       </c>
       <c r="AF84" s="13">
-        <v>11222</v>
+        <v>0</v>
       </c>
       <c r="AG84" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH84" s="13">
         <v>57</v>
       </c>
+      <c r="AH84" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI84" s="13" t="s">
         <v>58</v>
       </c>
@@ -11624,8 +11621,8 @@
       <c r="AM84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN84" s="13" t="s">
-        <v>58</v>
+      <c r="AN84" s="13">
+        <v>0</v>
       </c>
       <c r="AO84" s="13">
         <v>0</v>
@@ -11642,8 +11639,8 @@
       <c r="AS84" s="13">
         <v>0</v>
       </c>
-      <c r="AT84" s="13">
-        <v>0</v>
+      <c r="AT84" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU84" s="13" t="s">
         <v>58</v>
@@ -11747,26 +11744,26 @@
       <c r="AA85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB85" s="11" t="s">
-        <v>58</v>
+      <c r="AB85" s="11">
+        <v>53827</v>
       </c>
       <c r="AC85" s="11">
-        <v>53827</v>
+        <v>0</v>
       </c>
       <c r="AD85" s="11">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="AE85" s="11">
-        <v>82</v>
+        <v>30671</v>
       </c>
       <c r="AF85" s="11">
-        <v>30671</v>
+        <v>0</v>
       </c>
       <c r="AG85" s="11">
         <v>0</v>
       </c>
-      <c r="AH85" s="11">
-        <v>0</v>
+      <c r="AH85" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI85" s="11" t="s">
         <v>58</v>
@@ -11783,8 +11780,8 @@
       <c r="AM85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN85" s="11" t="s">
-        <v>58</v>
+      <c r="AN85" s="11">
+        <v>0</v>
       </c>
       <c r="AO85" s="11">
         <v>0</v>
@@ -11801,8 +11798,8 @@
       <c r="AS85" s="11">
         <v>0</v>
       </c>
-      <c r="AT85" s="11">
-        <v>0</v>
+      <c r="AT85" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU85" s="11" t="s">
         <v>58</v>
@@ -11906,26 +11903,26 @@
       <c r="AA86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB86" s="13" t="s">
-        <v>58</v>
+      <c r="AB86" s="13">
+        <v>130932</v>
       </c>
       <c r="AC86" s="13">
-        <v>130932</v>
+        <v>0</v>
       </c>
       <c r="AD86" s="13">
         <v>0</v>
       </c>
       <c r="AE86" s="13">
-        <v>0</v>
+        <v>27151</v>
       </c>
       <c r="AF86" s="13">
-        <v>27151</v>
+        <v>0</v>
       </c>
       <c r="AG86" s="13">
         <v>0</v>
       </c>
-      <c r="AH86" s="13">
-        <v>0</v>
+      <c r="AH86" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI86" s="13" t="s">
         <v>58</v>
@@ -11942,8 +11939,8 @@
       <c r="AM86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN86" s="13" t="s">
-        <v>58</v>
+      <c r="AN86" s="13">
+        <v>0</v>
       </c>
       <c r="AO86" s="13">
         <v>0</v>
@@ -11960,8 +11957,8 @@
       <c r="AS86" s="13">
         <v>0</v>
       </c>
-      <c r="AT86" s="13">
-        <v>0</v>
+      <c r="AT86" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU86" s="13" t="s">
         <v>58</v>
@@ -12119,32 +12116,32 @@
       <c r="AS87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT87" s="11" t="s">
-        <v>58</v>
+      <c r="AT87" s="11">
+        <v>360540</v>
       </c>
       <c r="AU87" s="11">
-        <v>360540</v>
+        <v>278409</v>
       </c>
       <c r="AV87" s="11">
-        <v>278409</v>
+        <v>348746</v>
       </c>
       <c r="AW87" s="11">
-        <v>348746</v>
+        <v>296456</v>
       </c>
       <c r="AX87" s="11">
-        <v>296456</v>
+        <v>335719</v>
       </c>
       <c r="AY87" s="11">
-        <v>335719</v>
+        <v>321388</v>
       </c>
       <c r="AZ87" s="11">
-        <v>321388</v>
+        <v>706241</v>
       </c>
       <c r="BA87" s="11">
-        <v>706241</v>
+        <v>1073995</v>
       </c>
       <c r="BB87" s="11">
-        <v>1073995</v>
+        <v>939932</v>
       </c>
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.3">
@@ -12214,94 +12211,94 @@
         <v>0</v>
       </c>
       <c r="Y88" s="15">
-        <v>0</v>
+        <v>693797</v>
       </c>
       <c r="Z88" s="15">
-        <v>693797</v>
+        <v>606721</v>
       </c>
       <c r="AA88" s="15">
-        <v>606721</v>
+        <v>616218</v>
       </c>
       <c r="AB88" s="15">
-        <v>616218</v>
+        <v>743415</v>
       </c>
       <c r="AC88" s="15">
-        <v>743415</v>
+        <v>520626</v>
       </c>
       <c r="AD88" s="15">
-        <v>520626</v>
+        <v>500612</v>
       </c>
       <c r="AE88" s="15">
-        <v>500612</v>
+        <v>411131</v>
       </c>
       <c r="AF88" s="15">
-        <v>411131</v>
+        <v>228821</v>
       </c>
       <c r="AG88" s="15">
-        <v>228821</v>
+        <v>139729</v>
       </c>
       <c r="AH88" s="15">
-        <v>139729</v>
+        <v>350204</v>
       </c>
       <c r="AI88" s="15">
-        <v>350204</v>
+        <v>502862</v>
       </c>
       <c r="AJ88" s="15">
-        <v>502862</v>
+        <v>401987</v>
       </c>
       <c r="AK88" s="15">
-        <v>401987</v>
+        <v>444994</v>
       </c>
       <c r="AL88" s="15">
-        <v>444994</v>
+        <v>520089</v>
       </c>
       <c r="AM88" s="15">
-        <v>520089</v>
+        <v>672608</v>
       </c>
       <c r="AN88" s="15">
-        <v>672608</v>
+        <v>580868</v>
       </c>
       <c r="AO88" s="15">
-        <v>580868</v>
+        <v>709012</v>
       </c>
       <c r="AP88" s="15">
-        <v>709012</v>
+        <v>727468</v>
       </c>
       <c r="AQ88" s="15">
-        <v>727468</v>
+        <v>800666</v>
       </c>
       <c r="AR88" s="15">
-        <v>800666</v>
+        <v>163403</v>
       </c>
       <c r="AS88" s="15">
         <v>163403</v>
       </c>
       <c r="AT88" s="15">
-        <v>163403</v>
+        <v>723623</v>
       </c>
       <c r="AU88" s="15">
-        <v>723623</v>
+        <v>569268</v>
       </c>
       <c r="AV88" s="15">
-        <v>569268</v>
+        <v>677554</v>
       </c>
       <c r="AW88" s="15">
-        <v>677554</v>
+        <v>737126</v>
       </c>
       <c r="AX88" s="15">
-        <v>737126</v>
+        <v>825021</v>
       </c>
       <c r="AY88" s="15">
-        <v>825021</v>
+        <v>1012825</v>
       </c>
       <c r="AZ88" s="15">
-        <v>1012825</v>
+        <v>1335246</v>
       </c>
       <c r="BA88" s="15">
-        <v>1335246</v>
+        <v>2418174</v>
       </c>
       <c r="BB88" s="15">
-        <v>2418174</v>
+        <v>2590211</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -12447,8 +12444,8 @@
       <c r="AD90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE90" s="11" t="s">
-        <v>58</v>
+      <c r="AE90" s="11">
+        <v>0</v>
       </c>
       <c r="AF90" s="11">
         <v>0</v>
@@ -12456,8 +12453,8 @@
       <c r="AG90" s="11">
         <v>0</v>
       </c>
-      <c r="AH90" s="11">
-        <v>0</v>
+      <c r="AH90" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI90" s="11" t="s">
         <v>58</v>
@@ -12588,8 +12585,8 @@
       <c r="X91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y91" s="13" t="s">
-        <v>58</v>
+      <c r="Y91" s="13">
+        <v>0</v>
       </c>
       <c r="Z91" s="13">
         <v>0</v>
@@ -12615,8 +12612,8 @@
       <c r="AG91" s="13">
         <v>0</v>
       </c>
-      <c r="AH91" s="13">
-        <v>0</v>
+      <c r="AH91" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI91" s="13" t="s">
         <v>58</v>
@@ -12747,11 +12744,11 @@
       <c r="X92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y92" s="11" t="s">
-        <v>58</v>
+      <c r="Y92" s="11">
+        <v>2075</v>
       </c>
       <c r="Z92" s="11">
-        <v>2075</v>
+        <v>0</v>
       </c>
       <c r="AA92" s="11">
         <v>0</v>
@@ -12774,8 +12771,8 @@
       <c r="AG92" s="11">
         <v>0</v>
       </c>
-      <c r="AH92" s="11">
-        <v>0</v>
+      <c r="AH92" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI92" s="11" t="s">
         <v>58</v>
@@ -12783,8 +12780,8 @@
       <c r="AJ92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK92" s="11" t="s">
-        <v>58</v>
+      <c r="AK92" s="11">
+        <v>0</v>
       </c>
       <c r="AL92" s="11">
         <v>0</v>
@@ -12810,8 +12807,8 @@
       <c r="AS92" s="11">
         <v>0</v>
       </c>
-      <c r="AT92" s="11">
-        <v>0</v>
+      <c r="AT92" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU92" s="11" t="s">
         <v>58</v>
@@ -12906,11 +12903,11 @@
       <c r="X93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y93" s="13" t="s">
-        <v>58</v>
+      <c r="Y93" s="13">
+        <v>8506</v>
       </c>
       <c r="Z93" s="13">
-        <v>8506</v>
+        <v>0</v>
       </c>
       <c r="AA93" s="13">
         <v>0</v>
@@ -12933,8 +12930,8 @@
       <c r="AG93" s="13">
         <v>0</v>
       </c>
-      <c r="AH93" s="13">
-        <v>0</v>
+      <c r="AH93" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI93" s="13" t="s">
         <v>58</v>
@@ -12942,26 +12939,26 @@
       <c r="AJ93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK93" s="13" t="s">
-        <v>58</v>
+      <c r="AK93" s="13">
+        <v>0</v>
       </c>
       <c r="AL93" s="13">
         <v>0</v>
       </c>
       <c r="AM93" s="13">
-        <v>0</v>
+        <v>11145</v>
       </c>
       <c r="AN93" s="13">
-        <v>11145</v>
+        <v>0</v>
       </c>
       <c r="AO93" s="13">
         <v>0</v>
       </c>
       <c r="AP93" s="13">
-        <v>0</v>
+        <v>15096</v>
       </c>
       <c r="AQ93" s="13">
-        <v>15096</v>
+        <v>0</v>
       </c>
       <c r="AR93" s="13">
         <v>0</v>
@@ -13128,8 +13125,8 @@
       <c r="AS94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT94" s="11" t="s">
-        <v>58</v>
+      <c r="AT94" s="11">
+        <v>0</v>
       </c>
       <c r="AU94" s="11">
         <v>0</v>
@@ -13223,10 +13220,10 @@
         <v>0</v>
       </c>
       <c r="Y95" s="15">
-        <v>0</v>
+        <v>10581</v>
       </c>
       <c r="Z95" s="15">
-        <v>10581</v>
+        <v>0</v>
       </c>
       <c r="AA95" s="15">
         <v>0</v>
@@ -13265,19 +13262,19 @@
         <v>0</v>
       </c>
       <c r="AM95" s="15">
-        <v>0</v>
+        <v>11145</v>
       </c>
       <c r="AN95" s="15">
-        <v>11145</v>
+        <v>0</v>
       </c>
       <c r="AO95" s="15">
         <v>0</v>
       </c>
       <c r="AP95" s="15">
-        <v>0</v>
+        <v>15096</v>
       </c>
       <c r="AQ95" s="15">
-        <v>15096</v>
+        <v>0</v>
       </c>
       <c r="AR95" s="15">
         <v>0</v>
@@ -13501,17 +13498,17 @@
       <c r="AS97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT97" s="11" t="s">
-        <v>58</v>
+      <c r="AT97" s="11">
+        <v>0</v>
       </c>
       <c r="AU97" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV97" s="11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AW97" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AX97" s="11">
         <v>0</v>
@@ -13633,14 +13630,14 @@
       <c r="AJ98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK98" s="13" t="s">
-        <v>58</v>
+      <c r="AK98" s="13">
+        <v>0</v>
       </c>
       <c r="AL98" s="13">
         <v>0</v>
       </c>
-      <c r="AM98" s="13">
-        <v>0</v>
+      <c r="AM98" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN98" s="13" t="s">
         <v>58</v>
@@ -13774,8 +13771,8 @@
       <c r="AD99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE99" s="11" t="s">
-        <v>58</v>
+      <c r="AE99" s="11">
+        <v>0</v>
       </c>
       <c r="AF99" s="11">
         <v>0</v>
@@ -13783,8 +13780,8 @@
       <c r="AG99" s="11">
         <v>0</v>
       </c>
-      <c r="AH99" s="11">
-        <v>0</v>
+      <c r="AH99" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI99" s="11" t="s">
         <v>58</v>
@@ -13822,11 +13819,11 @@
       <c r="AT99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU99" s="11" t="s">
-        <v>58</v>
+      <c r="AU99" s="11">
+        <v>4828</v>
       </c>
       <c r="AV99" s="11">
-        <v>4828</v>
+        <v>0</v>
       </c>
       <c r="AW99" s="11">
         <v>0</v>
@@ -13844,7 +13841,7 @@
         <v>0</v>
       </c>
       <c r="BB99" s="11">
-        <v>0</v>
+        <v>9469</v>
       </c>
     </row>
     <row r="100" spans="2:54" x14ac:dyDescent="0.3">
@@ -13915,26 +13912,26 @@
       <c r="X100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y100" s="13" t="s">
-        <v>58</v>
+      <c r="Y100" s="13">
+        <v>9050</v>
       </c>
       <c r="Z100" s="13">
-        <v>9050</v>
+        <v>5188</v>
       </c>
       <c r="AA100" s="13">
-        <v>5188</v>
+        <v>4532</v>
       </c>
       <c r="AB100" s="13">
         <v>4532</v>
       </c>
       <c r="AC100" s="13">
-        <v>4532</v>
+        <v>647</v>
       </c>
       <c r="AD100" s="13">
-        <v>647</v>
+        <v>1618</v>
       </c>
       <c r="AE100" s="13">
-        <v>1618</v>
+        <v>0</v>
       </c>
       <c r="AF100" s="13">
         <v>0</v>
@@ -13942,8 +13939,8 @@
       <c r="AG100" s="13">
         <v>0</v>
       </c>
-      <c r="AH100" s="13">
-        <v>0</v>
+      <c r="AH100" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI100" s="13" t="s">
         <v>58</v>
@@ -13957,8 +13954,8 @@
       <c r="AL100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM100" s="13" t="s">
-        <v>58</v>
+      <c r="AM100" s="13">
+        <v>0</v>
       </c>
       <c r="AN100" s="13">
         <v>0</v>
@@ -13978,8 +13975,8 @@
       <c r="AS100" s="13">
         <v>0</v>
       </c>
-      <c r="AT100" s="13">
-        <v>0</v>
+      <c r="AT100" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU100" s="13" t="s">
         <v>58</v>
@@ -14080,11 +14077,11 @@
       <c r="Z101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA101" s="11" t="s">
-        <v>58</v>
+      <c r="AA101" s="11">
+        <v>1822</v>
       </c>
       <c r="AB101" s="11">
-        <v>1822</v>
+        <v>0</v>
       </c>
       <c r="AC101" s="11">
         <v>0</v>
@@ -14101,8 +14098,8 @@
       <c r="AG101" s="11">
         <v>0</v>
       </c>
-      <c r="AH101" s="11">
-        <v>0</v>
+      <c r="AH101" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI101" s="11" t="s">
         <v>58</v>
@@ -14116,8 +14113,8 @@
       <c r="AL101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM101" s="11" t="s">
-        <v>58</v>
+      <c r="AM101" s="11">
+        <v>0</v>
       </c>
       <c r="AN101" s="11">
         <v>0</v>
@@ -14137,8 +14134,8 @@
       <c r="AS101" s="11">
         <v>0</v>
       </c>
-      <c r="AT101" s="11">
-        <v>0</v>
+      <c r="AT101" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU101" s="11" t="s">
         <v>58</v>
@@ -14242,11 +14239,11 @@
       <c r="AA102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB102" s="13" t="s">
-        <v>58</v>
+      <c r="AB102" s="13">
+        <v>2940</v>
       </c>
       <c r="AC102" s="13">
-        <v>2940</v>
+        <v>0</v>
       </c>
       <c r="AD102" s="13">
         <v>0</v>
@@ -14260,8 +14257,8 @@
       <c r="AG102" s="13">
         <v>0</v>
       </c>
-      <c r="AH102" s="13">
-        <v>0</v>
+      <c r="AH102" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI102" s="13" t="s">
         <v>58</v>
@@ -14278,8 +14275,8 @@
       <c r="AM102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN102" s="13" t="s">
-        <v>58</v>
+      <c r="AN102" s="13">
+        <v>0</v>
       </c>
       <c r="AO102" s="13">
         <v>0</v>
@@ -14296,8 +14293,8 @@
       <c r="AS102" s="13">
         <v>0</v>
       </c>
-      <c r="AT102" s="13">
-        <v>0</v>
+      <c r="AT102" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU102" s="13" t="s">
         <v>58</v>
@@ -14392,26 +14389,26 @@
       <c r="X103" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y103" s="17" t="s">
-        <v>58</v>
+      <c r="Y103" s="17">
+        <v>9050</v>
       </c>
       <c r="Z103" s="17">
-        <v>9050</v>
+        <v>5188</v>
       </c>
       <c r="AA103" s="17">
-        <v>5188</v>
+        <v>6354</v>
       </c>
       <c r="AB103" s="17">
-        <v>6354</v>
+        <v>7472</v>
       </c>
       <c r="AC103" s="17">
-        <v>7472</v>
+        <v>647</v>
       </c>
       <c r="AD103" s="17">
-        <v>647</v>
+        <v>1618</v>
       </c>
       <c r="AE103" s="17">
-        <v>1618</v>
+        <v>0</v>
       </c>
       <c r="AF103" s="17">
         <v>0</v>
@@ -14459,13 +14456,13 @@
         <v>0</v>
       </c>
       <c r="AU103" s="17">
-        <v>0</v>
+        <v>4829</v>
       </c>
       <c r="AV103" s="17">
-        <v>4829</v>
+        <v>-1</v>
       </c>
       <c r="AW103" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AX103" s="17">
         <v>0</v>
@@ -14480,7 +14477,7 @@
         <v>0</v>
       </c>
       <c r="BB103" s="17">
-        <v>0</v>
+        <v>9469</v>
       </c>
     </row>
     <row r="104" spans="2:54" x14ac:dyDescent="0.3">
@@ -14674,11 +14671,11 @@
       <c r="AT105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU105" s="11" t="s">
-        <v>58</v>
+      <c r="AU105" s="11">
+        <v>-120</v>
       </c>
       <c r="AV105" s="11">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="AW105" s="11">
         <v>0</v>
@@ -14788,14 +14785,14 @@
       <c r="AE106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF106" s="13" t="s">
-        <v>58</v>
+      <c r="AF106" s="13">
+        <v>-25803</v>
       </c>
       <c r="AG106" s="13">
-        <v>-25803</v>
-      </c>
-      <c r="AH106" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH106" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI106" s="13" t="s">
         <v>58</v>
@@ -14824,20 +14821,20 @@
       <c r="AQ106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR106" s="13" t="s">
-        <v>58</v>
+      <c r="AR106" s="13">
+        <v>0</v>
       </c>
       <c r="AS106" s="13">
         <v>0</v>
       </c>
-      <c r="AT106" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU106" s="13" t="s">
-        <v>58</v>
+      <c r="AT106" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU106" s="13">
+        <v>-15</v>
       </c>
       <c r="AV106" s="13">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AW106" s="13">
         <v>0</v>
@@ -14846,16 +14843,16 @@
         <v>0</v>
       </c>
       <c r="AY106" s="13">
-        <v>0</v>
+        <v>-66</v>
       </c>
       <c r="AZ106" s="13">
-        <v>-66</v>
+        <v>0</v>
       </c>
       <c r="BA106" s="13">
         <v>0</v>
       </c>
       <c r="BB106" s="13">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="107" spans="2:54" x14ac:dyDescent="0.3">
@@ -14926,8 +14923,8 @@
       <c r="X107" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y107" s="17" t="s">
-        <v>58</v>
+      <c r="Y107" s="17">
+        <v>0</v>
       </c>
       <c r="Z107" s="17">
         <v>0</v>
@@ -14948,10 +14945,10 @@
         <v>0</v>
       </c>
       <c r="AF107" s="17">
-        <v>0</v>
+        <v>-25803</v>
       </c>
       <c r="AG107" s="17">
-        <v>-25803</v>
+        <v>0</v>
       </c>
       <c r="AH107" s="17">
         <v>0</v>
@@ -14993,10 +14990,10 @@
         <v>0</v>
       </c>
       <c r="AU107" s="17">
-        <v>0</v>
+        <v>-135</v>
       </c>
       <c r="AV107" s="17">
-        <v>-135</v>
+        <v>0</v>
       </c>
       <c r="AW107" s="17">
         <v>0</v>
@@ -15005,16 +15002,16 @@
         <v>0</v>
       </c>
       <c r="AY107" s="17">
-        <v>0</v>
+        <v>-66</v>
       </c>
       <c r="AZ107" s="17">
-        <v>-66</v>
+        <v>0</v>
       </c>
       <c r="BA107" s="17">
         <v>0</v>
       </c>
       <c r="BB107" s="17">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="108" spans="2:54" x14ac:dyDescent="0.3">
@@ -15142,8 +15139,8 @@
       <c r="X109" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y109" s="11" t="s">
-        <v>58</v>
+      <c r="Y109" s="11">
+        <v>0</v>
       </c>
       <c r="Z109" s="11">
         <v>0</v>
@@ -15206,31 +15203,31 @@
         <v>0</v>
       </c>
       <c r="AT109" s="11">
-        <v>0</v>
+        <v>-31532</v>
       </c>
       <c r="AU109" s="11">
-        <v>-31532</v>
+        <v>-20328</v>
       </c>
       <c r="AV109" s="11">
-        <v>-20328</v>
+        <v>-3720</v>
       </c>
       <c r="AW109" s="11">
-        <v>-3720</v>
+        <v>-6198</v>
       </c>
       <c r="AX109" s="11">
-        <v>-6198</v>
+        <v>-30208</v>
       </c>
       <c r="AY109" s="11">
-        <v>-30208</v>
+        <v>-1869</v>
       </c>
       <c r="AZ109" s="11">
-        <v>-1869</v>
+        <v>0</v>
       </c>
       <c r="BA109" s="11">
-        <v>0</v>
+        <v>-588</v>
       </c>
       <c r="BB109" s="11">
-        <v>-588</v>
+        <v>-6857</v>
       </c>
     </row>
     <row r="110" spans="2:54" x14ac:dyDescent="0.3">
@@ -15300,94 +15297,94 @@
         <v>0</v>
       </c>
       <c r="Y110" s="15">
-        <v>0</v>
+        <v>713428</v>
       </c>
       <c r="Z110" s="15">
-        <v>713428</v>
+        <v>611909</v>
       </c>
       <c r="AA110" s="15">
-        <v>611909</v>
+        <v>622572</v>
       </c>
       <c r="AB110" s="15">
-        <v>622572</v>
+        <v>750887</v>
       </c>
       <c r="AC110" s="15">
-        <v>750887</v>
+        <v>521273</v>
       </c>
       <c r="AD110" s="15">
-        <v>521273</v>
+        <v>502230</v>
       </c>
       <c r="AE110" s="15">
-        <v>502230</v>
+        <v>411131</v>
       </c>
       <c r="AF110" s="15">
-        <v>411131</v>
+        <v>203018</v>
       </c>
       <c r="AG110" s="15">
-        <v>203018</v>
+        <v>139729</v>
       </c>
       <c r="AH110" s="15">
-        <v>139729</v>
+        <v>350204</v>
       </c>
       <c r="AI110" s="15">
-        <v>350204</v>
+        <v>502862</v>
       </c>
       <c r="AJ110" s="15">
-        <v>502862</v>
+        <v>401987</v>
       </c>
       <c r="AK110" s="15">
-        <v>401987</v>
+        <v>444994</v>
       </c>
       <c r="AL110" s="15">
-        <v>444994</v>
+        <v>520089</v>
       </c>
       <c r="AM110" s="15">
-        <v>520089</v>
+        <v>683753</v>
       </c>
       <c r="AN110" s="15">
-        <v>683753</v>
+        <v>580868</v>
       </c>
       <c r="AO110" s="15">
-        <v>580868</v>
+        <v>709012</v>
       </c>
       <c r="AP110" s="15">
-        <v>709012</v>
+        <v>742564</v>
       </c>
       <c r="AQ110" s="15">
-        <v>742564</v>
+        <v>800666</v>
       </c>
       <c r="AR110" s="15">
-        <v>800666</v>
+        <v>163403</v>
       </c>
       <c r="AS110" s="15">
         <v>163403</v>
       </c>
       <c r="AT110" s="15">
-        <v>163403</v>
+        <v>692091</v>
       </c>
       <c r="AU110" s="15">
-        <v>692091</v>
+        <v>553634</v>
       </c>
       <c r="AV110" s="15">
-        <v>553634</v>
+        <v>673833</v>
       </c>
       <c r="AW110" s="15">
-        <v>673833</v>
+        <v>730928</v>
       </c>
       <c r="AX110" s="15">
-        <v>730928</v>
+        <v>794813</v>
       </c>
       <c r="AY110" s="15">
-        <v>794813</v>
+        <v>1010890</v>
       </c>
       <c r="AZ110" s="15">
-        <v>1010890</v>
+        <v>1335246</v>
       </c>
       <c r="BA110" s="15">
-        <v>1335246</v>
+        <v>2417586</v>
       </c>
       <c r="BB110" s="15">
-        <v>2417586</v>
+        <v>2592818</v>
       </c>
     </row>
     <row r="111" spans="2:54" x14ac:dyDescent="0.3">
@@ -15892,95 +15889,95 @@
       <c r="X117" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y117" s="11" t="s">
-        <v>58</v>
+      <c r="Y117" s="11">
+        <v>3791999</v>
       </c>
       <c r="Z117" s="11">
-        <v>3791999</v>
+        <v>4180380</v>
       </c>
       <c r="AA117" s="11">
-        <v>4180380</v>
+        <v>3701898</v>
       </c>
       <c r="AB117" s="11">
-        <v>3701898</v>
+        <v>6213545</v>
       </c>
       <c r="AC117" s="11">
-        <v>6213545</v>
+        <v>4655814</v>
       </c>
       <c r="AD117" s="11">
-        <v>4655814</v>
+        <v>4102959</v>
       </c>
       <c r="AE117" s="11">
-        <v>4102959</v>
+        <v>6270683</v>
       </c>
       <c r="AF117" s="11">
-        <v>6270683</v>
+        <v>9429936</v>
       </c>
       <c r="AG117" s="11">
-        <v>9429936</v>
+        <v>7573864</v>
       </c>
       <c r="AH117" s="11">
-        <v>7573864</v>
+        <v>4419540</v>
       </c>
       <c r="AI117" s="11">
-        <v>4419540</v>
+        <v>5293286</v>
       </c>
       <c r="AJ117" s="11">
-        <v>5293286</v>
+        <v>4212088</v>
       </c>
       <c r="AK117" s="11">
-        <v>4212088</v>
+        <v>3991219</v>
       </c>
       <c r="AL117" s="11">
-        <v>3991219</v>
+        <v>4494957</v>
       </c>
       <c r="AM117" s="11">
-        <v>4494957</v>
+        <v>4694307</v>
       </c>
       <c r="AN117" s="11">
-        <v>4694307</v>
+        <v>3401260</v>
       </c>
       <c r="AO117" s="11">
-        <v>3401260</v>
+        <v>6093519</v>
       </c>
       <c r="AP117" s="11">
-        <v>6093519</v>
+        <v>5200629</v>
       </c>
       <c r="AQ117" s="11">
-        <v>5200629</v>
+        <v>6022166</v>
       </c>
       <c r="AR117" s="11">
-        <v>6022166</v>
+        <v>5937741</v>
       </c>
       <c r="AS117" s="11">
         <v>5937741</v>
       </c>
       <c r="AT117" s="11">
-        <v>5937741</v>
+        <v>6403696</v>
       </c>
       <c r="AU117" s="11">
-        <v>6403696</v>
+        <v>7683033</v>
       </c>
       <c r="AV117" s="11">
-        <v>7683033</v>
+        <v>6570797</v>
       </c>
       <c r="AW117" s="11">
-        <v>6570797</v>
+        <v>10165955</v>
       </c>
       <c r="AX117" s="11">
-        <v>10165955</v>
+        <v>16904571</v>
       </c>
       <c r="AY117" s="11">
-        <v>16904571</v>
+        <v>14956774</v>
       </c>
       <c r="AZ117" s="11">
-        <v>14956774</v>
+        <v>20459496</v>
       </c>
       <c r="BA117" s="11">
-        <v>20459496</v>
+        <v>22621304</v>
       </c>
       <c r="BB117" s="11">
-        <v>22621304</v>
+        <v>26375547</v>
       </c>
     </row>
     <row r="118" spans="2:54" x14ac:dyDescent="0.3">
@@ -16051,71 +16048,71 @@
       <c r="X118" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y118" s="13" t="s">
-        <v>58</v>
+      <c r="Y118" s="13">
+        <v>3449503</v>
       </c>
       <c r="Z118" s="13">
-        <v>3449503</v>
+        <v>3366325</v>
       </c>
       <c r="AA118" s="13">
-        <v>3366325</v>
+        <v>3862087</v>
       </c>
       <c r="AB118" s="13">
-        <v>3862087</v>
+        <v>4150804</v>
       </c>
       <c r="AC118" s="13">
-        <v>4150804</v>
+        <v>4351203</v>
       </c>
       <c r="AD118" s="13">
-        <v>4351203</v>
+        <v>4500902</v>
       </c>
       <c r="AE118" s="13">
-        <v>4500902</v>
+        <v>4200818</v>
       </c>
       <c r="AF118" s="13">
-        <v>4200818</v>
+        <v>4244823</v>
       </c>
       <c r="AG118" s="13">
-        <v>4244823</v>
+        <v>3583480</v>
       </c>
       <c r="AH118" s="13">
-        <v>3583480</v>
+        <v>4423514</v>
       </c>
       <c r="AI118" s="13">
-        <v>4423514</v>
+        <v>4319815</v>
       </c>
       <c r="AJ118" s="13">
-        <v>4319815</v>
+        <v>3664167</v>
       </c>
       <c r="AK118" s="13">
-        <v>3664167</v>
+        <v>3838401</v>
       </c>
       <c r="AL118" s="13">
-        <v>3838401</v>
+        <v>5468902</v>
       </c>
       <c r="AM118" s="13">
-        <v>5468902</v>
+        <v>5341878</v>
       </c>
       <c r="AN118" s="13">
-        <v>5341878</v>
+        <v>4885379</v>
       </c>
       <c r="AO118" s="13">
-        <v>4885379</v>
+        <v>5183938</v>
       </c>
       <c r="AP118" s="13">
-        <v>5183938</v>
+        <v>5477720</v>
       </c>
       <c r="AQ118" s="13">
-        <v>5477720</v>
+        <v>5450748</v>
       </c>
       <c r="AR118" s="13">
-        <v>5450748</v>
+        <v>7589906</v>
       </c>
       <c r="AS118" s="13">
         <v>7589906</v>
       </c>
-      <c r="AT118" s="13">
-        <v>7589906</v>
+      <c r="AT118" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU118" s="13" t="s">
         <v>58</v>
@@ -16210,95 +16207,95 @@
       <c r="X119" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y119" s="11" t="s">
-        <v>58</v>
+      <c r="Y119" s="11">
+        <v>56315847</v>
       </c>
       <c r="Z119" s="11">
-        <v>56315847</v>
+        <v>56088486</v>
       </c>
       <c r="AA119" s="11">
-        <v>56088486</v>
+        <v>58972507</v>
       </c>
       <c r="AB119" s="11">
-        <v>58972507</v>
+        <v>59094808</v>
       </c>
       <c r="AC119" s="11">
-        <v>59094808</v>
+        <v>58332071</v>
       </c>
       <c r="AD119" s="11">
-        <v>58332071</v>
+        <v>68345566</v>
       </c>
       <c r="AE119" s="11">
-        <v>68345566</v>
+        <v>82166667</v>
       </c>
       <c r="AF119" s="11">
-        <v>82166667</v>
+        <v>56000000</v>
       </c>
       <c r="AG119" s="11">
-        <v>56000000</v>
+        <v>79750000</v>
       </c>
       <c r="AH119" s="11">
-        <v>79750000</v>
+        <v>71294118</v>
       </c>
       <c r="AI119" s="11">
-        <v>71294118</v>
+        <v>75782554</v>
       </c>
       <c r="AJ119" s="11">
-        <v>75782554</v>
+        <v>66078740</v>
       </c>
       <c r="AK119" s="11">
-        <v>66078740</v>
+        <v>63168675</v>
       </c>
       <c r="AL119" s="11">
-        <v>63168675</v>
+        <v>69197425</v>
       </c>
       <c r="AM119" s="11">
-        <v>69197425</v>
+        <v>80142857</v>
       </c>
       <c r="AN119" s="11">
-        <v>80142857</v>
+        <v>48946154</v>
       </c>
       <c r="AO119" s="11">
-        <v>48946154</v>
+        <v>73886978</v>
       </c>
       <c r="AP119" s="11">
-        <v>73886978</v>
+        <v>75878966</v>
       </c>
       <c r="AQ119" s="11">
-        <v>75878966</v>
+        <v>69271529</v>
       </c>
       <c r="AR119" s="11">
-        <v>69271529</v>
+        <v>77830870</v>
       </c>
       <c r="AS119" s="11">
         <v>77830870</v>
       </c>
       <c r="AT119" s="11">
-        <v>77830870</v>
+        <v>89071050</v>
       </c>
       <c r="AU119" s="11">
-        <v>89071050</v>
+        <v>81118470</v>
       </c>
       <c r="AV119" s="11">
-        <v>81118470</v>
+        <v>93459441</v>
       </c>
       <c r="AW119" s="11">
-        <v>93459441</v>
+        <v>123994912</v>
       </c>
       <c r="AX119" s="11">
-        <v>123994912</v>
+        <v>192098117</v>
       </c>
       <c r="AY119" s="11">
-        <v>192098117</v>
+        <v>205777705</v>
       </c>
       <c r="AZ119" s="11">
-        <v>205777705</v>
+        <v>173409804</v>
       </c>
       <c r="BA119" s="11">
-        <v>173409804</v>
+        <v>230886747</v>
       </c>
       <c r="BB119" s="11">
-        <v>230886747</v>
+        <v>233816844</v>
       </c>
     </row>
     <row r="120" spans="2:54" x14ac:dyDescent="0.3">
@@ -16432,32 +16429,32 @@
       <c r="AS120" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT120" s="13" t="s">
-        <v>58</v>
+      <c r="AT120" s="13">
+        <v>6080650</v>
       </c>
       <c r="AU120" s="13">
-        <v>6080650</v>
+        <v>5795720</v>
       </c>
       <c r="AV120" s="13">
-        <v>5795720</v>
+        <v>6820104</v>
       </c>
       <c r="AW120" s="13">
-        <v>6820104</v>
+        <v>7559375</v>
       </c>
       <c r="AX120" s="13">
-        <v>7559375</v>
+        <v>23938890</v>
       </c>
       <c r="AY120" s="13">
-        <v>23938890</v>
+        <v>19241334</v>
       </c>
       <c r="AZ120" s="13">
-        <v>19241334</v>
+        <v>14511404</v>
       </c>
       <c r="BA120" s="13">
-        <v>14511404</v>
+        <v>15277529</v>
       </c>
       <c r="BB120" s="13">
-        <v>15277529</v>
+        <v>15089129</v>
       </c>
     </row>
     <row r="121" spans="2:54" x14ac:dyDescent="0.3">
@@ -16585,11 +16582,11 @@
       <c r="X122" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z122" s="11">
+      <c r="Y122" s="11">
         <v>3952381</v>
+      </c>
+      <c r="Z122" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AA122" s="11" t="s">
         <v>58</v>
@@ -16744,12 +16741,12 @@
       <c r="X123" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y123" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z123" s="13">
+      <c r="Y123" s="13">
         <v>135015873</v>
       </c>
+      <c r="Z123" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AA123" s="13" t="s">
         <v>58</v>
       </c>
@@ -16786,20 +16783,20 @@
       <c r="AL123" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM123" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN123" s="13">
+      <c r="AM123" s="13">
         <v>398035714</v>
       </c>
+      <c r="AN123" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AO123" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP123" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ123" s="13">
+      <c r="AP123" s="13">
         <v>408000000</v>
+      </c>
+      <c r="AQ123" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR123" s="13" t="s">
         <v>58</v>
@@ -17023,17 +17020,17 @@
       <c r="AS125" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT125" s="11" t="s">
-        <v>58</v>
+      <c r="AT125" s="11">
+        <v>0</v>
       </c>
       <c r="AU125" s="11">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="AV125" s="11">
-        <v>10000</v>
+        <v>-10000</v>
       </c>
       <c r="AW125" s="11">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="AX125" s="11">
         <v>0</v>
@@ -17155,14 +17152,14 @@
       <c r="AJ126" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK126" s="13" t="s">
-        <v>58</v>
+      <c r="AK126" s="13">
+        <v>0</v>
       </c>
       <c r="AL126" s="13">
         <v>0</v>
       </c>
-      <c r="AM126" s="13">
-        <v>0</v>
+      <c r="AM126" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN126" s="13" t="s">
         <v>58</v>
@@ -17215,7 +17212,7 @@
         <v>74</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11" t="s">
@@ -17296,8 +17293,8 @@
       <c r="AD127" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE127" s="11" t="s">
-        <v>58</v>
+      <c r="AE127" s="11">
+        <v>0</v>
       </c>
       <c r="AF127" s="11">
         <v>0</v>
@@ -17305,8 +17302,8 @@
       <c r="AG127" s="11">
         <v>0</v>
       </c>
-      <c r="AH127" s="11">
-        <v>0</v>
+      <c r="AH127" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI127" s="11" t="s">
         <v>58</v>
@@ -17344,11 +17341,11 @@
       <c r="AT127" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU127" s="11" t="s">
-        <v>58</v>
+      <c r="AU127" s="11">
+        <v>800000</v>
       </c>
       <c r="AV127" s="11">
-        <v>800000</v>
+        <v>0</v>
       </c>
       <c r="AW127" s="11">
         <v>0</v>
@@ -17366,7 +17363,7 @@
         <v>0</v>
       </c>
       <c r="BB127" s="11">
-        <v>0</v>
+        <v>1700000</v>
       </c>
     </row>
     <row r="128" spans="2:54" x14ac:dyDescent="0.3">
@@ -17437,26 +17434,26 @@
       <c r="X128" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y128" s="13" t="s">
-        <v>58</v>
+      <c r="Y128" s="13">
+        <v>649957</v>
       </c>
       <c r="Z128" s="13">
-        <v>649957</v>
+        <v>617766</v>
       </c>
       <c r="AA128" s="13">
-        <v>617766</v>
+        <v>650029</v>
       </c>
       <c r="AB128" s="13">
         <v>650029</v>
       </c>
       <c r="AC128" s="13">
-        <v>650029</v>
+        <v>649598</v>
       </c>
       <c r="AD128" s="13">
-        <v>649598</v>
+        <v>649799</v>
       </c>
       <c r="AE128" s="13">
-        <v>649799</v>
+        <v>0</v>
       </c>
       <c r="AF128" s="13">
         <v>0</v>
@@ -17464,8 +17461,8 @@
       <c r="AG128" s="13">
         <v>0</v>
       </c>
-      <c r="AH128" s="13">
-        <v>0</v>
+      <c r="AH128" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI128" s="13" t="s">
         <v>58</v>
@@ -17479,8 +17476,8 @@
       <c r="AL128" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM128" s="13" t="s">
-        <v>58</v>
+      <c r="AM128" s="13">
+        <v>0</v>
       </c>
       <c r="AN128" s="13">
         <v>0</v>
@@ -17500,8 +17497,8 @@
       <c r="AS128" s="13">
         <v>0</v>
       </c>
-      <c r="AT128" s="13">
-        <v>0</v>
+      <c r="AT128" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU128" s="13" t="s">
         <v>58</v>
@@ -17602,11 +17599,11 @@
       <c r="Z129" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA129" s="11" t="s">
-        <v>58</v>
+      <c r="AA129" s="11">
+        <v>10910180</v>
       </c>
       <c r="AB129" s="11">
-        <v>10910180</v>
+        <v>0</v>
       </c>
       <c r="AC129" s="11">
         <v>0</v>
@@ -17623,8 +17620,8 @@
       <c r="AG129" s="11">
         <v>0</v>
       </c>
-      <c r="AH129" s="11">
-        <v>0</v>
+      <c r="AH129" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI129" s="11" t="s">
         <v>58</v>
@@ -17638,8 +17635,8 @@
       <c r="AL129" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM129" s="11" t="s">
-        <v>58</v>
+      <c r="AM129" s="11">
+        <v>0</v>
       </c>
       <c r="AN129" s="11">
         <v>0</v>
@@ -17659,8 +17656,8 @@
       <c r="AS129" s="11">
         <v>0</v>
       </c>
-      <c r="AT129" s="11">
-        <v>0</v>
+      <c r="AT129" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU129" s="11" t="s">
         <v>58</v>
@@ -17764,11 +17761,11 @@
       <c r="AA130" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB130" s="13" t="s">
-        <v>58</v>
+      <c r="AB130" s="13">
+        <v>600000</v>
       </c>
       <c r="AC130" s="13">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="AD130" s="13">
         <v>0</v>
@@ -17782,8 +17779,8 @@
       <c r="AG130" s="13">
         <v>0</v>
       </c>
-      <c r="AH130" s="13">
-        <v>0</v>
+      <c r="AH130" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI130" s="13" t="s">
         <v>58</v>
@@ -17800,8 +17797,8 @@
       <c r="AM130" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN130" s="13" t="s">
-        <v>58</v>
+      <c r="AN130" s="13">
+        <v>0</v>
       </c>
       <c r="AO130" s="13">
         <v>0</v>
@@ -17818,8 +17815,8 @@
       <c r="AS130" s="13">
         <v>0</v>
       </c>
-      <c r="AT130" s="13">
-        <v>0</v>
+      <c r="AT130" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU130" s="13" t="s">
         <v>58</v>
